--- a/02.Design_Document/project_management.xlsx
+++ b/02.Design_Document/project_management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\backend\BookStore\02.Design_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6525ACCC-35D6-49FF-92D3-ED659451990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6F8E6D-57F4-495D-9323-39C5C906A311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Schedule!$A$1:$O$110</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Screen Design'!$A$1:$Q$389</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2435,7 +2435,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2720,12 +2720,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9155,61 +9149,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>662085</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>167854</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>939989</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>172166</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6F7144-AFB3-42DD-360F-480255FB0AC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="61" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15259950" y="4928214"/>
-          <a:ext cx="277904" cy="4312"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>369270</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -9423,6 +9362,63 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>639138</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>170510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>939989</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172766</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Straight Arrow Connector 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5840D28-7028-1B9A-1503-174DF17838C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="60" idx="3"/>
+          <a:endCxn id="61" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15216198" y="4948250"/>
+          <a:ext cx="300851" cy="2256"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -12138,7 +12134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12436,22 +12432,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="91.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="207" t="s">
+      <c r="A19" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="208"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="208"/>
-      <c r="E19" s="208"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="208"/>
-      <c r="J19" s="208"/>
-      <c r="K19" s="208"/>
-      <c r="L19" s="208"/>
-      <c r="M19" s="208"/>
-      <c r="N19" s="209"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="206"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="207"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -12486,22 +12482,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A22" s="204" t="s">
+      <c r="A22" s="202" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="205"/>
-      <c r="C22" s="205"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="206"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="203"/>
+      <c r="L22" s="203"/>
+      <c r="M22" s="203"/>
+      <c r="N22" s="204"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
@@ -12809,10 +12805,10 @@
     </row>
     <row r="42" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13"/>
-      <c r="B42" s="202" t="s">
+      <c r="B42" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="202"/>
+      <c r="C42" s="200"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -12932,10 +12928,10 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="203" t="s">
+      <c r="K48" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="203"/>
+      <c r="L48" s="201"/>
       <c r="M48" s="19">
         <v>44698</v>
       </c>
@@ -12952,10 +12948,10 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="203" t="s">
+      <c r="K49" s="201" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="203"/>
+      <c r="L49" s="201"/>
       <c r="M49" s="19">
         <v>44729</v>
       </c>
@@ -13022,58 +13018,58 @@
   <sheetData>
     <row r="1" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="208" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="211"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="214" t="s">
+      <c r="E2" s="212" t="s">
         <v>412</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
       <c r="Q2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="218">
+      <c r="R2" s="216">
         <v>44698</v>
       </c>
-      <c r="S2" s="219"/>
+      <c r="S2" s="217"/>
     </row>
     <row r="3" spans="1:19" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="212"/>
-      <c r="B3" s="213"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="211"/>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
       <c r="Q3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="220">
+      <c r="R3" s="218">
         <v>44729</v>
       </c>
-      <c r="S3" s="221"/>
+      <c r="S3" s="219"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -14150,50 +14146,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="222" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="220" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="223"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
       <c r="M2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="218">
+      <c r="N2" s="216">
         <v>44333</v>
       </c>
-      <c r="O2" s="219"/>
+      <c r="O2" s="217"/>
     </row>
     <row r="3" spans="1:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="212"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="225"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
       <c r="M3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="220">
+      <c r="N3" s="218">
         <v>44729</v>
       </c>
-      <c r="O3" s="221"/>
+      <c r="O3" s="219"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -14231,7 +14227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="159">
         <v>1</v>
       </c>
@@ -14255,10 +14251,13 @@
       <c r="H6" s="161">
         <v>44698</v>
       </c>
-      <c r="I6" s="200">
+      <c r="I6" s="161">
         <v>44729</v>
       </c>
-      <c r="J6" s="201"/>
+      <c r="J6" s="199">
+        <f t="shared" ref="J6:J8" si="0">I6-H6</f>
+        <v>31</v>
+      </c>
       <c r="K6" s="54">
         <v>1</v>
       </c>
@@ -14281,7 +14280,7 @@
         <v>44701</v>
       </c>
       <c r="G7" s="160">
-        <f t="shared" ref="G7:G8" si="0">F7-E7</f>
+        <f t="shared" ref="G7:G8" si="1">F7-E7</f>
         <v>3</v>
       </c>
       <c r="H7" s="161">
@@ -14291,7 +14290,7 @@
         <v>44699</v>
       </c>
       <c r="J7" s="199">
-        <f t="shared" ref="J7:J8" si="1">I7-H7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="54">
@@ -14316,7 +14315,7 @@
         <v>44705</v>
       </c>
       <c r="G8" s="160">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H8" s="161">
@@ -14326,7 +14325,7 @@
         <v>44704</v>
       </c>
       <c r="J8" s="162">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K8" s="54">
@@ -17716,7 +17715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17727,54 +17726,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="214" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="212" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
       <c r="O2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="218">
+      <c r="P2" s="216">
         <v>44698</v>
       </c>
-      <c r="Q2" s="219"/>
+      <c r="Q2" s="217"/>
     </row>
     <row r="3" spans="1:17" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="212"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
       <c r="O3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="220">
+      <c r="P3" s="218">
         <v>44729</v>
       </c>
-      <c r="Q3" s="221"/>
+      <c r="Q3" s="219"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -17801,19 +17800,19 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="232"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
-      <c r="G5" s="233"/>
-      <c r="H5" s="233"/>
-      <c r="I5" s="233"/>
-      <c r="J5" s="233"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233"/>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
-      <c r="O5" s="233"/>
-      <c r="P5" s="234"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="231"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="231"/>
+      <c r="L5" s="231"/>
+      <c r="M5" s="231"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="231"/>
+      <c r="P5" s="232"/>
       <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -17822,76 +17821,76 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
-      <c r="I6" s="236"/>
-      <c r="J6" s="236"/>
-      <c r="K6" s="236"/>
-      <c r="L6" s="236"/>
-      <c r="M6" s="236"/>
-      <c r="N6" s="236"/>
-      <c r="O6" s="236"/>
-      <c r="P6" s="237"/>
+      <c r="D6" s="233"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="234"/>
+      <c r="H6" s="234"/>
+      <c r="I6" s="234"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="234"/>
+      <c r="L6" s="234"/>
+      <c r="M6" s="234"/>
+      <c r="N6" s="234"/>
+      <c r="O6" s="234"/>
+      <c r="P6" s="235"/>
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="236"/>
-      <c r="H7" s="236"/>
-      <c r="I7" s="236"/>
-      <c r="J7" s="236"/>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
-      <c r="O7" s="236"/>
-      <c r="P7" s="237"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="234"/>
+      <c r="I7" s="234"/>
+      <c r="J7" s="234"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="234"/>
+      <c r="N7" s="234"/>
+      <c r="O7" s="234"/>
+      <c r="P7" s="235"/>
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="236"/>
-      <c r="H8" s="236"/>
-      <c r="I8" s="236"/>
-      <c r="J8" s="236"/>
-      <c r="K8" s="236"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="236"/>
-      <c r="N8" s="236"/>
-      <c r="O8" s="236"/>
-      <c r="P8" s="237"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="234"/>
+      <c r="N8" s="234"/>
+      <c r="O8" s="234"/>
+      <c r="P8" s="235"/>
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="239"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="239"/>
-      <c r="M9" s="239"/>
-      <c r="N9" s="239"/>
-      <c r="O9" s="239"/>
-      <c r="P9" s="240"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="237"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="237"/>
+      <c r="M9" s="237"/>
+      <c r="N9" s="237"/>
+      <c r="O9" s="237"/>
+      <c r="P9" s="238"/>
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -17914,44 +17913,44 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="226" t="s">
+      <c r="A11" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="227"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="227"/>
-      <c r="E11" s="227"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="227"/>
-      <c r="J11" s="227"/>
-      <c r="K11" s="227"/>
-      <c r="L11" s="227"/>
-      <c r="M11" s="227"/>
-      <c r="N11" s="227"/>
-      <c r="O11" s="227"/>
-      <c r="P11" s="227"/>
-      <c r="Q11" s="228"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="225"/>
+      <c r="G11" s="225"/>
+      <c r="H11" s="225"/>
+      <c r="I11" s="225"/>
+      <c r="J11" s="225"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="225"/>
+      <c r="O11" s="225"/>
+      <c r="P11" s="225"/>
+      <c r="Q11" s="226"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="229"/>
-      <c r="B12" s="230"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="230"/>
-      <c r="H12" s="230"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="230"/>
-      <c r="K12" s="230"/>
-      <c r="L12" s="230"/>
-      <c r="M12" s="230"/>
-      <c r="N12" s="230"/>
-      <c r="O12" s="230"/>
-      <c r="P12" s="230"/>
-      <c r="Q12" s="231"/>
+      <c r="A12" s="227"/>
+      <c r="B12" s="228"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="228"/>
+      <c r="G12" s="228"/>
+      <c r="H12" s="228"/>
+      <c r="I12" s="228"/>
+      <c r="J12" s="228"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
+      <c r="M12" s="228"/>
+      <c r="N12" s="228"/>
+      <c r="O12" s="228"/>
+      <c r="P12" s="228"/>
+      <c r="Q12" s="229"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
@@ -18775,54 +18774,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="214" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="212" t="s">
         <v>422</v>
       </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
       <c r="O2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="218">
+      <c r="P2" s="216">
         <v>44698</v>
       </c>
-      <c r="Q2" s="219"/>
+      <c r="Q2" s="217"/>
     </row>
     <row r="3" spans="1:17" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="212"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
       <c r="O3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="220">
+      <c r="P3" s="218">
         <v>44729</v>
       </c>
-      <c r="Q3" s="221"/>
+      <c r="Q3" s="219"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -20560,7 +20559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O291"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="63" zoomScaleNormal="100" zoomScaleSheetLayoutView="63" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="63" zoomScaleNormal="100" zoomScaleSheetLayoutView="63" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20578,50 +20577,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="214" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="212" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
       <c r="M2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="218">
+      <c r="N2" s="216">
         <v>44703</v>
       </c>
-      <c r="O2" s="219"/>
+      <c r="O2" s="217"/>
     </row>
     <row r="3" spans="1:15" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="212"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
       <c r="M3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="220">
+      <c r="N3" s="218">
         <v>44729</v>
       </c>
-      <c r="O3" s="221"/>
+      <c r="O3" s="219"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
@@ -28704,68 +28703,68 @@
   <sheetData>
     <row r="1" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:25" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="208" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="214" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
       <c r="W2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="218">
+      <c r="X2" s="216">
         <v>44333</v>
       </c>
-      <c r="Y2" s="219"/>
+      <c r="Y2" s="217"/>
     </row>
     <row r="3" spans="1:25" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="212"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
+      <c r="A3" s="210"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
       <c r="W3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="220"/>
-      <c r="Y3" s="221"/>
+      <c r="X3" s="218"/>
+      <c r="Y3" s="219"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="128"/>
@@ -28844,15 +28843,15 @@
       <c r="C7" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="251" t="s">
+      <c r="D7" s="249" t="s">
         <v>299</v>
       </c>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="253"/>
+      <c r="E7" s="250"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="251"/>
       <c r="K7" s="136"/>
       <c r="L7" s="137"/>
       <c r="M7" s="138"/>
@@ -28872,15 +28871,15 @@
       <c r="C8" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="254" t="s">
+      <c r="D8" s="252" t="s">
         <v>300</v>
       </c>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="256"/>
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="253"/>
+      <c r="I8" s="253"/>
+      <c r="J8" s="254"/>
       <c r="K8" s="172"/>
       <c r="L8" s="142"/>
       <c r="M8" s="143"/>
@@ -28900,15 +28899,15 @@
       <c r="C9" s="135" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="251" t="s">
+      <c r="D9" s="249" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="252"/>
-      <c r="F9" s="252"/>
-      <c r="G9" s="252"/>
-      <c r="H9" s="252"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="253"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="250"/>
+      <c r="I9" s="250"/>
+      <c r="J9" s="251"/>
       <c r="K9" s="173"/>
       <c r="L9" s="148"/>
       <c r="M9" s="149"/>
@@ -28928,15 +28927,15 @@
       <c r="C10" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="251" t="s">
+      <c r="D10" s="249" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="252"/>
-      <c r="F10" s="252"/>
-      <c r="G10" s="252"/>
-      <c r="H10" s="252"/>
-      <c r="I10" s="252"/>
-      <c r="J10" s="253"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="250"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="250"/>
+      <c r="I10" s="250"/>
+      <c r="J10" s="251"/>
       <c r="K10" s="174"/>
       <c r="L10" s="152"/>
       <c r="M10" s="153"/>
@@ -29033,14 +29032,14 @@
       <c r="H15" s="160"/>
       <c r="I15" s="160"/>
       <c r="J15" s="160"/>
-      <c r="K15" s="249" t="s">
+      <c r="K15" s="247" t="s">
         <v>333</v>
       </c>
-      <c r="L15" s="250"/>
-      <c r="M15" s="250"/>
-      <c r="N15" s="250"/>
-      <c r="O15" s="250"/>
-      <c r="P15" s="250"/>
+      <c r="L15" s="248"/>
+      <c r="M15" s="248"/>
+      <c r="N15" s="248"/>
+      <c r="O15" s="248"/>
+      <c r="P15" s="248"/>
       <c r="Q15" s="169"/>
       <c r="R15" s="169"/>
       <c r="S15" s="169"/>
@@ -29054,21 +29053,21 @@
       <c r="C16" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
+      <c r="D16" s="240"/>
+      <c r="E16" s="240"/>
+      <c r="F16" s="240"/>
+      <c r="G16" s="240"/>
       <c r="H16" s="160"/>
       <c r="I16" s="169"/>
       <c r="J16" s="169"/>
-      <c r="K16" s="241" t="s">
+      <c r="K16" s="239" t="s">
         <v>335</v>
       </c>
-      <c r="L16" s="241"/>
-      <c r="M16" s="241"/>
-      <c r="N16" s="241"/>
-      <c r="O16" s="241"/>
-      <c r="P16" s="241"/>
+      <c r="L16" s="239"/>
+      <c r="M16" s="239"/>
+      <c r="N16" s="239"/>
+      <c r="O16" s="239"/>
+      <c r="P16" s="239"/>
       <c r="Q16" s="178"/>
       <c r="R16" s="179"/>
       <c r="S16" s="178"/>
@@ -29083,21 +29082,21 @@
       <c r="C17" s="182" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
+      <c r="D17" s="240"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="240"/>
+      <c r="G17" s="240"/>
       <c r="H17" s="160"/>
       <c r="I17" s="160"/>
       <c r="J17" s="160"/>
-      <c r="K17" s="243" t="s">
+      <c r="K17" s="241" t="s">
         <v>334</v>
       </c>
-      <c r="L17" s="244"/>
-      <c r="M17" s="244"/>
-      <c r="N17" s="244"/>
-      <c r="O17" s="244"/>
-      <c r="P17" s="245"/>
+      <c r="L17" s="242"/>
+      <c r="M17" s="242"/>
+      <c r="N17" s="242"/>
+      <c r="O17" s="242"/>
+      <c r="P17" s="243"/>
       <c r="Q17" s="169"/>
       <c r="R17" s="169"/>
       <c r="S17" s="169"/>
@@ -29111,21 +29110,21 @@
       <c r="C18" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="240"/>
       <c r="H18" s="160"/>
       <c r="I18" s="160"/>
       <c r="J18" s="160"/>
-      <c r="K18" s="246" t="s">
+      <c r="K18" s="244" t="s">
         <v>336</v>
       </c>
-      <c r="L18" s="247"/>
-      <c r="M18" s="247"/>
-      <c r="N18" s="247"/>
-      <c r="O18" s="247"/>
-      <c r="P18" s="248"/>
+      <c r="L18" s="245"/>
+      <c r="M18" s="245"/>
+      <c r="N18" s="245"/>
+      <c r="O18" s="245"/>
+      <c r="P18" s="246"/>
       <c r="Q18" s="169"/>
       <c r="R18" s="169"/>
     </row>

--- a/02.Design_Document/project_management.xlsx
+++ b/02.Design_Document/project_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\backend\BookStore\02.Design_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6F8E6D-57F4-495D-9323-39C5C906A311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ACC2AD-6EAC-48DE-8134-14535ABCF1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2833,11 +2833,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2861,24 +2879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9427,6 +9427,165 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89234BF0-3909-7625-DD46-A2F915654CCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60960" y="10805160"/>
+          <a:ext cx="3040380" cy="26670"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="Straight Connector 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35164540-E415-79CB-E885-6E80E2773FF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="68580" y="4747260"/>
+          <a:ext cx="15240" cy="6065520"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>739139</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Arrow Connector 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B960E1B-C33E-7978-C666-1C64B3255E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99060" y="4747260"/>
+          <a:ext cx="3200399" cy="35244"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13006,7 +13165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14128,7 +14287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="88" zoomScaleNormal="140" zoomScaleSheetLayoutView="88" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A97" zoomScale="88" zoomScaleNormal="140" zoomScaleSheetLayoutView="88" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17715,7 +17874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18759,7 +18918,7 @@
   </sheetPr>
   <dimension ref="A1:Q389"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="108" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20559,7 +20718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O291"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="63" zoomScaleNormal="100" zoomScaleSheetLayoutView="63" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="63" zoomScaleNormal="100" zoomScaleSheetLayoutView="63" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -28843,15 +29002,15 @@
       <c r="C7" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="249" t="s">
+      <c r="D7" s="243" t="s">
         <v>299</v>
       </c>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="250"/>
-      <c r="J7" s="251"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="245"/>
       <c r="K7" s="136"/>
       <c r="L7" s="137"/>
       <c r="M7" s="138"/>
@@ -28871,15 +29030,15 @@
       <c r="C8" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="252" t="s">
+      <c r="D8" s="239" t="s">
         <v>300</v>
       </c>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="253"/>
-      <c r="I8" s="253"/>
-      <c r="J8" s="254"/>
+      <c r="E8" s="240"/>
+      <c r="F8" s="240"/>
+      <c r="G8" s="240"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="241"/>
       <c r="K8" s="172"/>
       <c r="L8" s="142"/>
       <c r="M8" s="143"/>
@@ -28899,15 +29058,15 @@
       <c r="C9" s="135" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="249" t="s">
+      <c r="D9" s="243" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="250"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="250"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="251"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="245"/>
       <c r="K9" s="173"/>
       <c r="L9" s="148"/>
       <c r="M9" s="149"/>
@@ -28927,15 +29086,15 @@
       <c r="C10" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="249" t="s">
+      <c r="D10" s="243" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="250"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="250"/>
-      <c r="I10" s="250"/>
-      <c r="J10" s="251"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="245"/>
       <c r="K10" s="174"/>
       <c r="L10" s="152"/>
       <c r="M10" s="153"/>
@@ -29032,14 +29191,14 @@
       <c r="H15" s="160"/>
       <c r="I15" s="160"/>
       <c r="J15" s="160"/>
-      <c r="K15" s="247" t="s">
+      <c r="K15" s="253" t="s">
         <v>333</v>
       </c>
-      <c r="L15" s="248"/>
-      <c r="M15" s="248"/>
-      <c r="N15" s="248"/>
-      <c r="O15" s="248"/>
-      <c r="P15" s="248"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="254"/>
+      <c r="N15" s="254"/>
+      <c r="O15" s="254"/>
+      <c r="P15" s="254"/>
       <c r="Q15" s="169"/>
       <c r="R15" s="169"/>
       <c r="S15" s="169"/>
@@ -29053,21 +29212,21 @@
       <c r="C16" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="240"/>
-      <c r="E16" s="240"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="240"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
       <c r="H16" s="160"/>
       <c r="I16" s="169"/>
       <c r="J16" s="169"/>
-      <c r="K16" s="239" t="s">
+      <c r="K16" s="246" t="s">
         <v>335</v>
       </c>
-      <c r="L16" s="239"/>
-      <c r="M16" s="239"/>
-      <c r="N16" s="239"/>
-      <c r="O16" s="239"/>
-      <c r="P16" s="239"/>
+      <c r="L16" s="246"/>
+      <c r="M16" s="246"/>
+      <c r="N16" s="246"/>
+      <c r="O16" s="246"/>
+      <c r="P16" s="246"/>
       <c r="Q16" s="178"/>
       <c r="R16" s="179"/>
       <c r="S16" s="178"/>
@@ -29082,21 +29241,21 @@
       <c r="C17" s="182" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="240"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="240"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
       <c r="H17" s="160"/>
       <c r="I17" s="160"/>
       <c r="J17" s="160"/>
-      <c r="K17" s="241" t="s">
+      <c r="K17" s="247" t="s">
         <v>334</v>
       </c>
-      <c r="L17" s="242"/>
-      <c r="M17" s="242"/>
-      <c r="N17" s="242"/>
-      <c r="O17" s="242"/>
-      <c r="P17" s="243"/>
+      <c r="L17" s="248"/>
+      <c r="M17" s="248"/>
+      <c r="N17" s="248"/>
+      <c r="O17" s="248"/>
+      <c r="P17" s="249"/>
       <c r="Q17" s="169"/>
       <c r="R17" s="169"/>
       <c r="S17" s="169"/>
@@ -29110,41 +29269,41 @@
       <c r="C18" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="240"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="240"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
       <c r="H18" s="160"/>
       <c r="I18" s="160"/>
       <c r="J18" s="160"/>
-      <c r="K18" s="244" t="s">
+      <c r="K18" s="250" t="s">
         <v>336</v>
       </c>
-      <c r="L18" s="245"/>
-      <c r="M18" s="245"/>
-      <c r="N18" s="245"/>
-      <c r="O18" s="245"/>
-      <c r="P18" s="246"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="251"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="252"/>
       <c r="Q18" s="169"/>
       <c r="R18" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:V3"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:V3"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="K15:P15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/02.Design_Document/project_management.xlsx
+++ b/02.Design_Document/project_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\backend\BookStore\02.Design_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1181E5-3D35-4266-85A1-26E4E34F46D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9992E2EF-AF42-4D3D-BCAC-2C37F4F8CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="441">
   <si>
     <t>No</t>
   </si>
@@ -1370,6 +1370,9 @@
   </si>
   <si>
     <t>(画面遷移）</t>
+  </si>
+  <si>
+    <t>စာဖတ်ခြင်းကိုချစ်မြတ်နိုးကြသည့်မိတ်ဆွေများအတွက်ရည်ရွယ်ပြီးစာအုပ်ဆိုင်  Bookstore Websiteလေးကိုဖန်တီးထားခြင်းဖြစ်ပါသည်။ထို့အပြင်စာဖတ်ရတာကြိုက်ပေမယ့်အပြင်ထွက်တာမကြိုက်သည့်သူ၊ရပ်ဝေးမှာနေသည့်သူတွေအတွက်လည်း အဆင်ပြေပြေOnline ကနေ ဝယ်လို့ရအောင်လည်း ပြုလုပ်ပေးထားပါသည်။</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2161,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2388,6 +2391,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2474,34 +2478,36 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -2527,15 +2533,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>837937</xdr:colOff>
+      <xdr:colOff>868417</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>792480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2550,8 +2556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3398257" y="3924300"/>
-          <a:ext cx="777503" cy="350520"/>
+          <a:off x="3954517" y="3909060"/>
+          <a:ext cx="952763" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -2598,15 +2604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>739139</xdr:colOff>
+      <xdr:colOff>693419</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>55247</xdr:rowOff>
+      <xdr:rowOff>32387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>960120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2621,8 +2627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3299459" y="4619627"/>
-          <a:ext cx="967741" cy="295274"/>
+          <a:off x="3779519" y="4612007"/>
+          <a:ext cx="1295401" cy="295274"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2665,15 +2671,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>828492</xdr:colOff>
+      <xdr:colOff>853440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>780402</xdr:colOff>
+      <xdr:colOff>818502</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2688,8 +2694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3388812" y="5284470"/>
-          <a:ext cx="805350" cy="560070"/>
+          <a:off x="3939540" y="5314950"/>
+          <a:ext cx="993762" cy="560070"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2736,15 +2742,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>373249</xdr:colOff>
+      <xdr:colOff>316099</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>55247</xdr:rowOff>
+      <xdr:rowOff>32387</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2762,8 +2768,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3783330" y="4274820"/>
-          <a:ext cx="3679" cy="344807"/>
+          <a:off x="4427220" y="4259580"/>
+          <a:ext cx="3679" cy="352427"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2792,15 +2798,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>369570</xdr:colOff>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>377727</xdr:colOff>
+      <xdr:colOff>321621</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2818,8 +2824,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3783330" y="4914901"/>
-          <a:ext cx="8157" cy="369569"/>
+          <a:off x="4427220" y="4907281"/>
+          <a:ext cx="9201" cy="407669"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2848,15 +2854,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
+      <xdr:colOff>792480</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4764</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>960120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180024</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2867,16 +2873,19 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4198620" y="4099560"/>
-          <a:ext cx="91440" cy="667704"/>
+          <a:off x="4907280" y="4084320"/>
+          <a:ext cx="167640" cy="675324"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -250000"/>
+            <a:gd name="adj1" fmla="val -136364"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2954,13 +2963,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>281941</xdr:colOff>
+      <xdr:colOff>167641</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -2977,8 +2986,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="281941" y="6675120"/>
-          <a:ext cx="754379" cy="289560"/>
+          <a:off x="167641" y="6690360"/>
+          <a:ext cx="784860" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3021,13 +3030,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>441961</xdr:colOff>
+      <xdr:colOff>160021</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>998220</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -3044,8 +3053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1295401" y="6690360"/>
-          <a:ext cx="754379" cy="289560"/>
+          <a:off x="1188721" y="6705600"/>
+          <a:ext cx="838199" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3088,13 +3097,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>640081</xdr:colOff>
+      <xdr:colOff>251461</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
+      <xdr:colOff>160021</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -3111,8 +3120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2346961" y="6697980"/>
-          <a:ext cx="754379" cy="289560"/>
+          <a:off x="2308861" y="6713220"/>
+          <a:ext cx="937260" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3154,14 +3163,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403861</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
+      <xdr:colOff>312420</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
@@ -3178,8 +3187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3413761" y="6713220"/>
-          <a:ext cx="754379" cy="289560"/>
+          <a:off x="3489961" y="6728460"/>
+          <a:ext cx="937259" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3221,14 +3230,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>243841</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563881</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
@@ -3245,8 +3254,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4511041" y="6713220"/>
-          <a:ext cx="754379" cy="289560"/>
+          <a:off x="4678681" y="6728460"/>
+          <a:ext cx="876299" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3278,7 +3287,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Community</a:t>
+            <a:t>User Info</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
@@ -3288,14 +3297,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>525781</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>731521</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -3312,8 +3321,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5646421" y="6720840"/>
-          <a:ext cx="754379" cy="289560"/>
+          <a:off x="5875021" y="6736080"/>
+          <a:ext cx="845819" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3355,14 +3364,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>792481</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>853441</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3379,8 +3388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6766561" y="6728460"/>
-          <a:ext cx="754379" cy="289560"/>
+          <a:off x="7025641" y="6743700"/>
+          <a:ext cx="830579" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3412,7 +3421,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>Setting</a:t>
+            <a:t>Community</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
@@ -3476,13 +3485,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>830580</xdr:colOff>
+      <xdr:colOff>598171</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>834391</xdr:colOff>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
@@ -3498,9 +3507,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1684020" y="6256020"/>
-          <a:ext cx="3811" cy="434340"/>
+        <a:xfrm flipH="1">
+          <a:off x="1626871" y="6248400"/>
+          <a:ext cx="3809" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3528,16 +3537,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>727711</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>140971</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3551,9 +3560,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2697480" y="6256020"/>
-          <a:ext cx="3811" cy="434340"/>
+        <a:xfrm flipH="1">
+          <a:off x="2785111" y="6256020"/>
+          <a:ext cx="3809" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3582,15 +3591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
+      <xdr:colOff>316767</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>377727</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3601,14 +3610,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3775711" y="5859780"/>
-          <a:ext cx="15776" cy="853440"/>
+        <a:xfrm>
+          <a:off x="4431567" y="5859780"/>
+          <a:ext cx="3273" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3636,16 +3643,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1017271</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>613411</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1021080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3659,9 +3666,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4876800" y="6256020"/>
-          <a:ext cx="3811" cy="434340"/>
+        <a:xfrm flipH="1">
+          <a:off x="5132071" y="6271260"/>
+          <a:ext cx="3809" cy="449580"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3689,14 +3696,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>194311</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -3712,9 +3719,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6027420" y="6271260"/>
-          <a:ext cx="3811" cy="434340"/>
+        <a:xfrm flipH="1">
+          <a:off x="6366511" y="6286500"/>
+          <a:ext cx="3809" cy="434340"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3796,15 +3803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>146684</xdr:rowOff>
+      <xdr:rowOff>78104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>982980</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3819,8 +3826,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="243840" y="7286624"/>
-          <a:ext cx="822960" cy="2322196"/>
+          <a:off x="114300" y="7233284"/>
+          <a:ext cx="868680" cy="3533776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3859,28 +3866,35 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-viewer</a:t>
+            <a:t>-customers</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-register</a:t>
+            <a:t>-total order</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-download</a:t>
+            <a:t>-total sale</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-order &amp; sale</a:t>
+            <a:t>-monthly oreder's chart</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>-daily order</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3890,15 +3904,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
+      <xdr:colOff>110490</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>169544</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3913,8 +3927,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1230630" y="7309484"/>
-          <a:ext cx="826770" cy="2314576"/>
+          <a:off x="1139190" y="7231380"/>
+          <a:ext cx="948690" cy="3543300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3946,77 +3960,67 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-Add item</a:t>
+            <a:t>-BookList</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-name</a:t>
+            <a:t>(name</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-img</a:t>
+            <a:t>img</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-price</a:t>
+            <a:t>price</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-preview</a:t>
+            <a:t>rating</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-stock</a:t>
+            <a:t>description</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-category</a:t>
+            <a:t>category)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> -Add</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-upload pdf</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-link generate</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-BookList </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-Update</a:t>
+            <a:t>-Edit</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4033,15 +4037,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>584835</xdr:colOff>
+      <xdr:colOff>241935</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4056,8 +4060,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2291715" y="7315200"/>
-          <a:ext cx="840105" cy="2316480"/>
+          <a:off x="2299335" y="7231380"/>
+          <a:ext cx="885825" cy="3573780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4103,6 +4107,38 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>AuthorName,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>AuthorImage,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Biography)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
             <a:t>-Add</a:t>
           </a:r>
         </a:p>
@@ -4110,7 +4146,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-Update</a:t>
+            <a:t>-Edit</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4120,6 +4156,10 @@
             <a:t>-Delete</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4127,15 +4167,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>822960</xdr:colOff>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>192404</xdr:rowOff>
+      <xdr:rowOff>108584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4150,8 +4190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3383280" y="7332344"/>
-          <a:ext cx="830580" cy="2314576"/>
+          <a:off x="3482340" y="7263764"/>
+          <a:ext cx="868680" cy="3556636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4183,26 +4223,43 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-Add</a:t>
+            <a:t>-Shop List</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-Update</a:t>
+            <a:t>(Name,</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-Delete</a:t>
+            <a:t>Image,</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Phno,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Address,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Website Link)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4210,16 +4267,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1904</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>93344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4234,8 +4291,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4511040" y="7339964"/>
-          <a:ext cx="830580" cy="2291716"/>
+          <a:off x="4655820" y="7248524"/>
+          <a:ext cx="899160" cy="3602356"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4264,25 +4321,77 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-Review &amp; Rating(view)</a:t>
+            <a:rPr lang="en-US" sz="1000">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>-User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> List</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-View form</a:t>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>(Name,</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-Contact Us</a:t>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Phno,</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Email,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Ban icon</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>-Ban User List</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ban user,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>unban icon</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4291,15 +4400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4314,8 +4423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5585460" y="7355205"/>
-          <a:ext cx="853440" cy="2306955"/>
+          <a:off x="6995160" y="7301865"/>
+          <a:ext cx="906780" cy="3571875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4344,25 +4453,151 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-Today Order</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Review</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-Order Detail Table (userinfo)</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(CustomerName,</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>-user info (for view)</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BookName,</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CategoryName,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Comment) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Contact Form from customers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(CustomerName,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Email,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Message)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4375,15 +4610,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>689610</xdr:colOff>
+      <xdr:colOff>883920</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4398,8 +4633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6663690" y="7324725"/>
-          <a:ext cx="857250" cy="2337435"/>
+          <a:off x="8084820" y="7269481"/>
+          <a:ext cx="937260" cy="3581400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4442,14 +4677,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t> LogoChange faviconChge</a:t>
+            <a:t> -LogoChange -faviconChge</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>SliderChange</a:t>
+            <a:t>-SliderChange</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4540,6 +4775,37 @@
             </a:rPr>
             <a:t>reate</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Admin</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
               <a:solidFill>
@@ -4567,15 +4833,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4590,8 +4856,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="10111740"/>
-          <a:ext cx="6621780" cy="30480"/>
+          <a:off x="525780" y="11841480"/>
+          <a:ext cx="8039100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4618,15 +4884,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4637,12 +4903,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="441960" y="9624060"/>
-          <a:ext cx="7620" cy="518160"/>
+          <a:off x="541020" y="10767060"/>
+          <a:ext cx="7620" cy="1082040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4669,15 +4937,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>729615</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>584835</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4688,12 +4956,67 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1607820" y="10774680"/>
+          <a:ext cx="5715" cy="1074420"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>684848</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5F90BC-782F-4102-B6FA-7AE1A7CFE686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1583055" y="9624060"/>
-          <a:ext cx="1905" cy="480060"/>
+          <a:off x="2742248" y="10805160"/>
+          <a:ext cx="16192" cy="1051560"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4720,33 +5043,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>822960</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>830580</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Connector 33">
+        <xdr:cNvPr id="35" name="Straight Connector 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5F90BC-782F-4102-B6FA-7AE1A7CFE686}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82076609-4C79-4D44-8007-8C1050D8C988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
+          <a:stCxn id="27" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2705100" y="9631680"/>
-          <a:ext cx="6668" cy="510540"/>
+          <a:off x="3909060" y="10820400"/>
+          <a:ext cx="7620" cy="1043940"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4772,69 +5095,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>384810</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Connector 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82076609-4C79-4D44-8007-8C1050D8C988}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3794760" y="9646920"/>
-          <a:ext cx="3810" cy="510540"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>659130</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4846,13 +5116,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="2"/>
+          <a:stCxn id="169" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4922520" y="9631680"/>
-          <a:ext cx="3810" cy="502920"/>
+        <a:xfrm>
+          <a:off x="6301740" y="10881360"/>
+          <a:ext cx="0" cy="967740"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4879,15 +5149,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4903,9 +5173,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6004560" y="9662160"/>
-          <a:ext cx="7620" cy="480060"/>
+        <a:xfrm>
+          <a:off x="7448550" y="10873740"/>
+          <a:ext cx="3810" cy="982980"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4932,15 +5202,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4955,8 +5225,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7048500" y="9669780"/>
-          <a:ext cx="0" cy="472440"/>
+          <a:off x="8542020" y="10850880"/>
+          <a:ext cx="7620" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4983,15 +5253,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5006,8 +5276,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3101340" y="10629900"/>
-          <a:ext cx="1264920" cy="373380"/>
+          <a:off x="3771900" y="12496800"/>
+          <a:ext cx="1615440" cy="373380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5049,15 +5319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5068,12 +5338,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3787140" y="10134600"/>
-          <a:ext cx="0" cy="495300"/>
+        <a:xfrm flipH="1">
+          <a:off x="4579620" y="11856720"/>
+          <a:ext cx="7620" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5102,15 +5374,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>659131</xdr:colOff>
+      <xdr:colOff>560071</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>146684</xdr:rowOff>
+      <xdr:rowOff>78104</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5128,8 +5400,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="655320" y="6964680"/>
-          <a:ext cx="3811" cy="321944"/>
+          <a:off x="548640" y="6979920"/>
+          <a:ext cx="11431" cy="253364"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5158,15 +5430,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>579121</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>765811</xdr:colOff>
+      <xdr:colOff>584835</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5177,12 +5449,70 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1607821" y="6995160"/>
+          <a:ext cx="5714" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>684848</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>697231</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC032B74-53D2-439B-9705-A7C017FCC21D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1615440" y="6979920"/>
-          <a:ext cx="3811" cy="321944"/>
+          <a:off x="2742248" y="6972300"/>
+          <a:ext cx="12383" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5211,31 +5541,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>826771</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:colOff>830580</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>169544</xdr:rowOff>
+      <xdr:rowOff>108584</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC032B74-53D2-439B-9705-A7C017FCC21D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B04124-6749-412F-992D-A666C75D4B19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2689860" y="6987540"/>
-          <a:ext cx="3811" cy="321944"/>
+        <a:xfrm>
+          <a:off x="3912871" y="7010400"/>
+          <a:ext cx="3809" cy="253364"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5264,68 +5596,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>192404</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B04124-6749-412F-992D-A666C75D4B19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3771900" y="7010400"/>
-          <a:ext cx="3811" cy="321944"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
+      <xdr:colOff>990600</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>636271</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1002031</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>184784</xdr:rowOff>
+      <xdr:rowOff>93344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5336,12 +5615,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4899660" y="7002780"/>
-          <a:ext cx="3811" cy="321944"/>
+          <a:off x="5105400" y="7018020"/>
+          <a:ext cx="11431" cy="230504"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5370,15 +5652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>240031</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>41911</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5389,12 +5671,15 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6012180" y="7025640"/>
-          <a:ext cx="3811" cy="321944"/>
+        <a:xfrm>
+          <a:off x="7440931" y="7033260"/>
+          <a:ext cx="7619" cy="268605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5423,7 +5708,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
@@ -5431,7 +5716,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>192404</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5442,12 +5727,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7147560" y="7010400"/>
-          <a:ext cx="3811" cy="321944"/>
+          <a:off x="8553450" y="7025640"/>
+          <a:ext cx="1" cy="243841"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5732,15 +6019,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1063269</xdr:colOff>
+      <xdr:colOff>1078509</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>79519</xdr:rowOff>
+      <xdr:rowOff>87139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>505147</xdr:colOff>
+      <xdr:colOff>520387</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85618</xdr:rowOff>
+      <xdr:rowOff>93238</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5755,8 +6042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8768887" y="4839879"/>
-          <a:ext cx="820327" cy="203020"/>
+          <a:off x="10161549" y="4864879"/>
+          <a:ext cx="821098" cy="204219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6640,16 +6927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1341120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1341120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6664,7 +6951,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10485120" y="4434840"/>
+          <a:off x="13182600" y="4434840"/>
           <a:ext cx="0" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6693,16 +6980,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1234440</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1234440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6717,7 +7004,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11224260" y="4419600"/>
+          <a:off x="14455140" y="4427220"/>
           <a:ext cx="0" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6800,15 +7087,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1224765</xdr:colOff>
+      <xdr:colOff>1316205</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1224765</xdr:colOff>
+      <xdr:colOff>1316205</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6823,8 +7110,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15822630" y="4427477"/>
-          <a:ext cx="0" cy="424323"/>
+          <a:off x="17295345" y="4404360"/>
+          <a:ext cx="0" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8826,15 +9113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>91013</xdr:colOff>
+      <xdr:colOff>106253</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>60190</xdr:rowOff>
+      <xdr:rowOff>67810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>94984</xdr:colOff>
+      <xdr:colOff>110224</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>79519</xdr:rowOff>
+      <xdr:rowOff>87139</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8851,8 +9138,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9175080" y="4426707"/>
-          <a:ext cx="3971" cy="413172"/>
+          <a:off x="10568513" y="4449310"/>
+          <a:ext cx="3971" cy="415569"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8881,15 +9168,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1138720</xdr:colOff>
+      <xdr:colOff>1153960</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85617</xdr:rowOff>
+      <xdr:rowOff>93237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>94985</xdr:colOff>
+      <xdr:colOff>110225</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>68491</xdr:rowOff>
+      <xdr:rowOff>76111</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8906,8 +9193,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8823336" y="5063900"/>
-          <a:ext cx="376717" cy="334714"/>
+          <a:off x="10215186" y="5090911"/>
+          <a:ext cx="379114" cy="335485"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8995,15 +9282,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9020,8 +9307,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60960" y="10805160"/>
-          <a:ext cx="3040380" cy="26670"/>
+          <a:off x="76200" y="12672060"/>
+          <a:ext cx="3695700" cy="11430"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9048,15 +9335,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9070,9 +9357,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="68580" y="4747260"/>
-          <a:ext cx="15240" cy="6065520"/>
+        <a:xfrm>
+          <a:off x="60960" y="4701540"/>
+          <a:ext cx="7620" cy="7962900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9099,15 +9386,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>739139</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4764</xdr:rowOff>
+      <xdr:colOff>693419</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180024</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9124,8 +9411,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="99060" y="4747260"/>
-          <a:ext cx="3200399" cy="35244"/>
+          <a:off x="53340" y="4724400"/>
+          <a:ext cx="3726179" cy="35244"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9191,6 +9478,425 @@
         <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>906781</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Rectangle 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC69BA27-510E-FD99-6D5D-DAC5699512D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8107681" y="6751320"/>
+          <a:ext cx="830579" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Setting</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>849631</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Straight Arrow Connector 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698CE1A6-BAC3-C6EF-5192-7A1AFAB89BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3935731" y="6271260"/>
+          <a:ext cx="3809" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>232411</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Straight Arrow Connector 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C442E01-51A3-DBB4-830A-CB896FD62CBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="6286500"/>
+          <a:ext cx="3811" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="Rectangle 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93995C39-A106-32FC-9997-54E104E23E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5844540" y="7256144"/>
+          <a:ext cx="914400" cy="3625216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>-Order List</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>(CustomerName,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Cus's Address,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Delivery City,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Total Amount,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Delivery Fees)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>-Order Detail</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>(BookName,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>BookPrice,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Quantity,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>Total)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>118111</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>93344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="170" name="Straight Arrow Connector 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7F2F304-5BB0-50FA-AC0D-C93EC1988783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6278880" y="7018020"/>
+          <a:ext cx="11431" cy="230504"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>998220</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="199" name="Straight Connector 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E3C8B0-E6EE-68F3-C719-7BCC89B42E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="10850880"/>
+          <a:ext cx="7620" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -12214,22 +12920,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="91.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="160"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="161"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -12264,22 +12970,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A22" s="155" t="s">
+      <c r="A22" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="157"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="158"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
@@ -12587,10 +13293,10 @@
     </row>
     <row r="42" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13"/>
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="153"/>
+      <c r="C42" s="154"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -12710,10 +13416,10 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="154" t="s">
+      <c r="K48" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="154"/>
+      <c r="L48" s="155"/>
       <c r="M48" s="19">
         <v>44698</v>
       </c>
@@ -12730,10 +13436,10 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="154" t="s">
+      <c r="K49" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="154"/>
+      <c r="L49" s="155"/>
       <c r="M49" s="19">
         <v>44729</v>
       </c>
@@ -12820,58 +13526,58 @@
       <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="162"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="165" t="s">
+      <c r="E2" s="166" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
       <c r="Q2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="169">
+      <c r="R2" s="170">
         <v>44698</v>
       </c>
-      <c r="S2" s="170"/>
+      <c r="S2" s="171"/>
     </row>
     <row r="3" spans="1:19" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163"/>
-      <c r="B3" s="164"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="165"/>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
       <c r="Q3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="171">
+      <c r="R3" s="172">
         <v>44729</v>
       </c>
-      <c r="S3" s="172"/>
+      <c r="S3" s="173"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -14068,8 +14774,8 @@
       <c r="J54" s="58"/>
       <c r="K54" s="58"/>
       <c r="L54" s="58"/>
-      <c r="M54" s="192"/>
-      <c r="N54" s="192"/>
+      <c r="M54" s="153"/>
+      <c r="N54" s="153"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
@@ -14610,50 +15316,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="173" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="174" t="s">
         <v>400</v>
       </c>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
       <c r="M2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="169">
+      <c r="N2" s="170">
         <v>44333</v>
       </c>
-      <c r="O2" s="170"/>
+      <c r="O2" s="171"/>
     </row>
     <row r="3" spans="1:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
       <c r="M3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="171">
+      <c r="N3" s="172">
         <v>44729</v>
       </c>
-      <c r="O3" s="172"/>
+      <c r="O3" s="173"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -18230,6 +18936,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="8" width="13.5" customWidth="1"/>
     <col min="10" max="15" width="18.09765625" customWidth="1"/>
     <col min="16" max="16" width="13.69921875" customWidth="1"/>
     <col min="17" max="17" width="11.19921875" customWidth="1"/>
@@ -18237,54 +18944,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="162" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="165" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="166" t="s">
         <v>400</v>
       </c>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
       <c r="O2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="169">
+      <c r="P2" s="170">
         <v>44698</v>
       </c>
-      <c r="Q2" s="170"/>
+      <c r="Q2" s="171"/>
     </row>
     <row r="3" spans="1:17" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
       <c r="O3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="171">
+      <c r="P3" s="172">
         <v>44729</v>
       </c>
-      <c r="Q3" s="172"/>
+      <c r="Q3" s="173"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -18311,19 +19018,21 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="185"/>
+      <c r="D5" s="185" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="187"/>
       <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -18332,76 +19041,76 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="190"/>
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="190"/>
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="187"/>
-      <c r="P8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="190"/>
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="190"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="191"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
+      <c r="N9" s="192"/>
+      <c r="O9" s="192"/>
+      <c r="P9" s="193"/>
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -18424,44 +19133,44 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="178" t="s">
         <v>439</v>
       </c>
-      <c r="B11" s="178"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
-      <c r="P11" s="178"/>
-      <c r="Q11" s="179"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="179"/>
+      <c r="P11" s="179"/>
+      <c r="Q11" s="180"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="180"/>
-      <c r="B12" s="181"/>
-      <c r="C12" s="181"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="182"/>
+      <c r="A12" s="181"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="182"/>
+      <c r="P12" s="182"/>
+      <c r="Q12" s="183"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
@@ -18494,6 +19203,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
+      <c r="H15" s="184"/>
       <c r="I15" s="7"/>
       <c r="Q15" s="14"/>
     </row>
@@ -18519,7 +19229,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
-      <c r="F20" t="s">
+      <c r="E20" s="122" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
@@ -19285,54 +19995,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="165" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="166" t="s">
         <v>410</v>
       </c>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
       <c r="O2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="169">
+      <c r="P2" s="170">
         <v>44698</v>
       </c>
-      <c r="Q2" s="170"/>
+      <c r="Q2" s="171"/>
     </row>
     <row r="3" spans="1:17" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
       <c r="O3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="171">
+      <c r="P3" s="172">
         <v>44729</v>
       </c>
-      <c r="Q3" s="172"/>
+      <c r="Q3" s="173"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -21088,50 +21798,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="165" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="166" t="s">
         <v>400</v>
       </c>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
       <c r="M2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="169">
+      <c r="N2" s="170">
         <v>44703</v>
       </c>
-      <c r="O2" s="170"/>
+      <c r="O2" s="171"/>
     </row>
     <row r="3" spans="1:15" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163"/>
-      <c r="B3" s="164"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
       <c r="M3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="171">
+      <c r="N3" s="172">
         <v>44729</v>
       </c>
-      <c r="O3" s="172"/>
+      <c r="O3" s="173"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>

--- a/02.Design_Document/project_management.xlsx
+++ b/02.Design_Document/project_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\backend\BookStore\02.Design_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9992E2EF-AF42-4D3D-BCAC-2C37F4F8CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173618EC-4541-485F-88C9-5E12D89976F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2392,6 +2392,9 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2477,9 +2480,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -12920,22 +12920,22 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="91.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="161"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="162"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
@@ -12970,22 +12970,22 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="158"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="159"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
@@ -13293,10 +13293,10 @@
     </row>
     <row r="42" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A42" s="13"/>
-      <c r="B42" s="154" t="s">
+      <c r="B42" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="154"/>
+      <c r="C42" s="155"/>
       <c r="D42" s="20">
         <v>1</v>
       </c>
@@ -13416,10 +13416,10 @@
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-      <c r="K48" s="155" t="s">
+      <c r="K48" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="L48" s="155"/>
+      <c r="L48" s="156"/>
       <c r="M48" s="19">
         <v>44698</v>
       </c>
@@ -13436,10 +13436,10 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="155" t="s">
+      <c r="K49" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="L49" s="155"/>
+      <c r="L49" s="156"/>
       <c r="M49" s="19">
         <v>44729</v>
       </c>
@@ -13526,58 +13526,58 @@
       <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="163"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="166" t="s">
+      <c r="E2" s="167" t="s">
         <v>400</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
       <c r="Q2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="170">
+      <c r="R2" s="171">
         <v>44698</v>
       </c>
-      <c r="S2" s="171"/>
+      <c r="S2" s="172"/>
     </row>
     <row r="3" spans="1:19" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
       <c r="Q3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="172">
+      <c r="R3" s="173">
         <v>44729</v>
       </c>
-      <c r="S3" s="173"/>
+      <c r="S3" s="174"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -15316,50 +15316,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="174" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="175" t="s">
         <v>400</v>
       </c>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
       <c r="M2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="170">
+      <c r="N2" s="171">
         <v>44333</v>
       </c>
-      <c r="O2" s="171"/>
+      <c r="O2" s="172"/>
     </row>
     <row r="3" spans="1:15" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
       <c r="M3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="172">
+      <c r="N3" s="173">
         <v>44729</v>
       </c>
-      <c r="O3" s="173"/>
+      <c r="O3" s="174"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -18944,54 +18944,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="166" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="167" t="s">
         <v>400</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
       <c r="O2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="170">
+      <c r="P2" s="171">
         <v>44698</v>
       </c>
-      <c r="Q2" s="171"/>
+      <c r="Q2" s="172"/>
     </row>
     <row r="3" spans="1:17" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
       <c r="O3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="172">
+      <c r="P3" s="173">
         <v>44729</v>
       </c>
-      <c r="Q3" s="173"/>
+      <c r="Q3" s="174"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -19133,44 +19133,44 @@
       <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="178" t="s">
+      <c r="A11" s="179" t="s">
         <v>439</v>
       </c>
-      <c r="B11" s="179"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="179"/>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="180"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="181"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="181"/>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="182"/>
-      <c r="Q12" s="183"/>
+      <c r="A12" s="182"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="183"/>
+      <c r="Q12" s="184"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
@@ -19203,7 +19203,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="H15" s="184"/>
+      <c r="H15" s="154"/>
       <c r="I15" s="7"/>
       <c r="Q15" s="14"/>
     </row>
@@ -19995,54 +19995,54 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="166" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="167" t="s">
         <v>410</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
       <c r="O2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="170">
+      <c r="P2" s="171">
         <v>44698</v>
       </c>
-      <c r="Q2" s="171"/>
+      <c r="Q2" s="172"/>
     </row>
     <row r="3" spans="1:17" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
       <c r="O3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="172">
+      <c r="P3" s="173">
         <v>44729</v>
       </c>
-      <c r="Q3" s="173"/>
+      <c r="Q3" s="174"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
@@ -21798,50 +21798,50 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="166" t="s">
+      <c r="B2" s="164"/>
+      <c r="C2" s="167" t="s">
         <v>400</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
       <c r="M2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="170">
+      <c r="N2" s="171">
         <v>44703</v>
       </c>
-      <c r="O2" s="171"/>
+      <c r="O2" s="172"/>
     </row>
     <row r="3" spans="1:15" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="164"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
       <c r="M3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="172">
+      <c r="N3" s="173">
         <v>44729</v>
       </c>
-      <c r="O3" s="173"/>
+      <c r="O3" s="174"/>
     </row>
     <row r="4" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>

--- a/02.Design_Document/project_management.xlsx
+++ b/02.Design_Document/project_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\backend\BookStore\02.Design_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173618EC-4541-485F-88C9-5E12D89976F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA535B0D-719A-4A33-9286-886AC1351D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t xml:space="preserve"> Team 1</t>
   </si>
   <si>
-    <t>Onine Book Shoping</t>
-  </si>
-  <si>
     <t>Ye Pyie</t>
   </si>
   <si>
@@ -1373,6 +1370,9 @@
   </si>
   <si>
     <t>စာဖတ်ခြင်းကိုချစ်မြတ်နိုးကြသည့်မိတ်ဆွေများအတွက်ရည်ရွယ်ပြီးစာအုပ်ဆိုင်  Bookstore Websiteလေးကိုဖန်တီးထားခြင်းဖြစ်ပါသည်။ထို့အပြင်စာဖတ်ရတာကြိုက်ပေမယ့်အပြင်ထွက်တာမကြိုက်သည့်သူ၊ရပ်ဝေးမှာနေသည့်သူတွေအတွက်လည်း အဆင်ပြေပြေOnline ကနေ ဝယ်လို့ရအောင်လည်း ပြုလုပ်ပေးထားပါသည်။</t>
+  </si>
+  <si>
+    <t>Onine Book Shopping</t>
   </si>
 </sst>
 </file>
@@ -13301,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -13321,7 +13321,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="140" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -13341,7 +13341,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -13361,7 +13361,7 @@
         <v>4</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -13533,7 +13533,7 @@
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
       <c r="E2" s="167" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F2" s="168"/>
       <c r="G2" s="168"/>
@@ -13653,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>51</v>
+        <v>440</v>
       </c>
       <c r="G7" s="58"/>
       <c r="H7" s="58"/>
@@ -13727,10 +13727,10 @@
       <c r="E10" s="58"/>
       <c r="F10" s="58"/>
       <c r="G10" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
@@ -13752,10 +13752,10 @@
       <c r="E11" s="58"/>
       <c r="F11" s="58"/>
       <c r="G11" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="6"/>
@@ -13777,10 +13777,10 @@
       <c r="E12" s="58"/>
       <c r="F12" s="58"/>
       <c r="G12" s="58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="58"/>
       <c r="J12" s="58"/>
@@ -13803,7 +13803,7 @@
       <c r="F13" s="58"/>
       <c r="G13" s="58"/>
       <c r="H13" s="58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I13" s="58"/>
       <c r="J13" s="58"/>
@@ -13826,7 +13826,7 @@
       <c r="F14" s="58"/>
       <c r="G14" s="58"/>
       <c r="H14" s="58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="58"/>
       <c r="J14" s="58"/>
@@ -13848,10 +13848,10 @@
       <c r="E15" s="58"/>
       <c r="F15" s="58"/>
       <c r="G15" s="58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H15" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="58"/>
       <c r="J15" s="58"/>
@@ -13874,7 +13874,7 @@
       <c r="F16" s="59"/>
       <c r="G16" s="58"/>
       <c r="H16" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="58"/>
       <c r="J16" s="58"/>
@@ -13897,7 +13897,7 @@
       <c r="F17" s="58"/>
       <c r="G17" s="58"/>
       <c r="H17" s="58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="58"/>
       <c r="J17" s="58"/>
@@ -13919,10 +13919,10 @@
       <c r="E18" s="58"/>
       <c r="F18" s="58"/>
       <c r="G18" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
@@ -13945,7 +13945,7 @@
       <c r="F19" s="58"/>
       <c r="G19" s="58"/>
       <c r="H19" s="68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="68"/>
       <c r="J19" s="68"/>
@@ -13967,10 +13967,10 @@
       <c r="E20" s="58"/>
       <c r="F20" s="58"/>
       <c r="G20" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H20" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="58"/>
       <c r="J20" s="58"/>
@@ -13993,7 +13993,7 @@
       <c r="F21" s="58"/>
       <c r="G21" s="58"/>
       <c r="H21" s="58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="58"/>
       <c r="J21" s="58"/>
@@ -14016,7 +14016,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -14038,10 +14038,10 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H23" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="58"/>
       <c r="J23" s="58"/>
@@ -14064,7 +14064,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="58"/>
       <c r="J24" s="58"/>
@@ -14087,7 +14087,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I25" s="58"/>
       <c r="J25" s="58"/>
@@ -14109,10 +14109,10 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H26" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I26" s="58"/>
       <c r="J26" s="58"/>
@@ -14135,7 +14135,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="58"/>
       <c r="J27" s="58"/>
@@ -14157,10 +14157,10 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H28" s="58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" s="58"/>
       <c r="J28" s="58"/>
@@ -14183,7 +14183,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" s="58"/>
       <c r="J29" s="58"/>
@@ -14206,7 +14206,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="58"/>
       <c r="J30" s="58"/>
@@ -14229,7 +14229,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="68"/>
       <c r="J31" s="68"/>
@@ -14252,7 +14252,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I32" s="68"/>
       <c r="J32" s="68"/>
@@ -14275,7 +14275,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="68"/>
       <c r="J33" s="68"/>
@@ -14298,7 +14298,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I34" s="68"/>
       <c r="J34" s="68"/>
@@ -14321,7 +14321,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I35" s="68"/>
       <c r="J35" s="68"/>
@@ -14344,7 +14344,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I36" s="68"/>
       <c r="J36" s="68"/>
@@ -14367,7 +14367,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37" s="68"/>
       <c r="J37" s="68"/>
@@ -14390,7 +14390,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" s="68"/>
       <c r="J38" s="68"/>
@@ -14413,7 +14413,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="68" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I39" s="68"/>
       <c r="J39" s="68"/>
@@ -14518,7 +14518,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="58" t="s">
         <v>46</v>
@@ -14590,10 +14590,10 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H47" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47" s="58"/>
       <c r="J47" s="58"/>
@@ -14615,10 +14615,10 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H48" s="68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I48" s="58"/>
       <c r="J48" s="58"/>
@@ -14640,10 +14640,10 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H49" s="68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I49" s="58"/>
       <c r="J49" s="58"/>
@@ -14665,10 +14665,10 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H50" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I50" s="58"/>
       <c r="J50" s="58"/>
@@ -14690,10 +14690,10 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H51" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I51" s="58"/>
       <c r="J51" s="58"/>
@@ -14715,10 +14715,10 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H52" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I52" s="58"/>
       <c r="J52" s="58"/>
@@ -14740,10 +14740,10 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H53" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I53" s="58"/>
       <c r="J53" s="63"/>
@@ -14765,10 +14765,10 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H54" s="58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I54" s="58"/>
       <c r="J54" s="58"/>
@@ -14790,10 +14790,10 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H55" s="58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I55" s="58"/>
       <c r="J55" s="58"/>
@@ -14815,10 +14815,10 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H56" s="68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I56" s="68"/>
       <c r="J56" s="68"/>
@@ -14840,10 +14840,10 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H57" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I57" s="58"/>
       <c r="J57" s="63"/>
@@ -14865,10 +14865,10 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H58" s="58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I58" s="58"/>
       <c r="J58" s="58"/>
@@ -15321,7 +15321,7 @@
       </c>
       <c r="B2" s="164"/>
       <c r="C2" s="175" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D2" s="176"/>
       <c r="E2" s="176"/>
@@ -15406,7 +15406,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="129">
         <v>44698</v>
@@ -15441,7 +15441,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="129">
         <v>44698</v>
@@ -15476,7 +15476,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="129">
         <v>44698</v>
@@ -15508,10 +15508,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="129">
         <v>44698</v>
@@ -15541,10 +15541,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="129">
         <v>44698</v>
@@ -15574,10 +15574,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="129">
         <v>44698</v>
@@ -15607,10 +15607,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="125" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="128" t="s">
         <v>115</v>
-      </c>
-      <c r="D12" s="128" t="s">
-        <v>116</v>
       </c>
       <c r="E12" s="129">
         <v>44698</v>
@@ -15640,10 +15640,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="129">
         <v>44698</v>
@@ -15673,10 +15673,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" s="128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="129">
         <v>44698</v>
@@ -15706,10 +15706,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="129">
         <v>44699</v>
@@ -15739,10 +15739,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="129">
         <v>44699</v>
@@ -15772,10 +15772,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="132">
         <v>44700</v>
@@ -15805,10 +15805,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="129">
         <v>44699</v>
@@ -15838,10 +15838,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D19" s="128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="129">
         <v>44699</v>
@@ -15871,10 +15871,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D20" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="132">
         <v>44703</v>
@@ -15904,10 +15904,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="132">
         <v>44700</v>
@@ -15937,10 +15937,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="132">
         <v>44700</v>
@@ -15970,10 +15970,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="132">
         <v>44703</v>
@@ -16003,10 +16003,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="132">
         <v>44702</v>
@@ -16036,10 +16036,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D25" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="132">
         <v>44702</v>
@@ -16069,10 +16069,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="143" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="132">
         <v>44700</v>
@@ -16102,10 +16102,10 @@
         <v>19</v>
       </c>
       <c r="C27" s="131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" s="129">
         <v>44699</v>
@@ -16135,10 +16135,10 @@
         <v>20</v>
       </c>
       <c r="C28" s="131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" s="132">
         <v>44700</v>
@@ -16168,10 +16168,10 @@
         <v>21</v>
       </c>
       <c r="C29" s="131" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D29" s="125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="132">
         <v>44700</v>
@@ -16201,10 +16201,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E30" s="132">
         <v>44700</v>
@@ -16234,10 +16234,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="132">
         <v>44700</v>
@@ -16267,10 +16267,10 @@
         <v>24</v>
       </c>
       <c r="C32" s="131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D32" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="132">
         <v>44700</v>
@@ -16300,10 +16300,10 @@
         <v>25</v>
       </c>
       <c r="C33" s="131" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D33" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="132">
         <v>44700</v>
@@ -16333,10 +16333,10 @@
         <v>26</v>
       </c>
       <c r="C34" s="145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D34" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" s="132">
         <v>44702</v>
@@ -16366,10 +16366,10 @@
         <v>27</v>
       </c>
       <c r="C35" s="145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D35" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" s="132">
         <v>44702</v>
@@ -16399,10 +16399,10 @@
         <v>28</v>
       </c>
       <c r="C36" s="131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D36" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="132">
         <v>44702</v>
@@ -16432,10 +16432,10 @@
         <v>29</v>
       </c>
       <c r="C37" s="131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="132">
         <v>44700</v>
@@ -16465,10 +16465,10 @@
         <v>30</v>
       </c>
       <c r="C38" s="131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" s="129">
         <v>44699</v>
@@ -16498,10 +16498,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="132">
         <v>44700</v>
@@ -16531,10 +16531,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="132">
         <v>44700</v>
@@ -16564,10 +16564,10 @@
         <v>33</v>
       </c>
       <c r="C41" s="131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="132">
         <v>44700</v>
@@ -16597,10 +16597,10 @@
         <v>34</v>
       </c>
       <c r="C42" s="131" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D42" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="132">
         <v>44700</v>
@@ -16630,10 +16630,10 @@
         <v>35</v>
       </c>
       <c r="C43" s="131" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D43" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="132">
         <v>44700</v>
@@ -16663,10 +16663,10 @@
         <v>36</v>
       </c>
       <c r="C44" s="131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D44" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" s="132">
         <v>44702</v>
@@ -16696,10 +16696,10 @@
         <v>37</v>
       </c>
       <c r="C45" s="131" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D45" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" s="132">
         <v>44702</v>
@@ -16729,10 +16729,10 @@
         <v>38</v>
       </c>
       <c r="C46" s="131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D46" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="132">
         <v>44702</v>
@@ -16762,10 +16762,10 @@
         <v>39</v>
       </c>
       <c r="C47" s="131" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D47" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="132">
         <v>44703</v>
@@ -16795,10 +16795,10 @@
         <v>40</v>
       </c>
       <c r="C48" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D48" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E48" s="132">
         <v>44703</v>
@@ -16828,10 +16828,10 @@
         <v>41</v>
       </c>
       <c r="C49" s="131" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D49" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E49" s="132">
         <v>44703</v>
@@ -16861,10 +16861,10 @@
         <v>42</v>
       </c>
       <c r="C50" s="131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D50" s="125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E50" s="132">
         <v>44703</v>
@@ -16894,10 +16894,10 @@
         <v>43</v>
       </c>
       <c r="C51" s="131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D51" s="125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" s="132">
         <v>44701</v>
@@ -16927,10 +16927,10 @@
         <v>44</v>
       </c>
       <c r="C52" s="131" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D52" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E52" s="132">
         <v>44703</v>
@@ -16960,10 +16960,10 @@
         <v>45</v>
       </c>
       <c r="C53" s="131" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D53" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E53" s="132">
         <v>44703</v>
@@ -16993,10 +16993,10 @@
         <v>46</v>
       </c>
       <c r="C54" s="131" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D54" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E54" s="132">
         <v>44703</v>
@@ -17026,10 +17026,10 @@
         <v>27</v>
       </c>
       <c r="C55" s="125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D55" s="125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E55" s="132">
         <v>44700</v>
@@ -17062,7 +17062,7 @@
         <v>15</v>
       </c>
       <c r="D56" s="128" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E56" s="129">
         <v>44702</v>
@@ -17097,7 +17097,7 @@
         <v>16</v>
       </c>
       <c r="D57" s="128" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" s="129">
         <v>44705</v>
@@ -17129,10 +17129,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" s="128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E58" s="129">
         <v>44705</v>
@@ -17164,10 +17164,10 @@
         <v>2</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D59" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E59" s="129">
         <v>44705</v>
@@ -17199,10 +17199,10 @@
         <v>3</v>
       </c>
       <c r="C60" s="125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D60" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" s="129">
         <v>44705</v>
@@ -17234,10 +17234,10 @@
         <v>4</v>
       </c>
       <c r="C61" s="125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D61" s="128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E61" s="129">
         <v>44705</v>
@@ -17269,10 +17269,10 @@
         <v>5</v>
       </c>
       <c r="C62" s="125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D62" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E62" s="129">
         <v>44705</v>
@@ -17304,10 +17304,10 @@
         <v>6</v>
       </c>
       <c r="C63" s="125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D63" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E63" s="129">
         <v>44705</v>
@@ -17339,10 +17339,10 @@
         <v>7</v>
       </c>
       <c r="C64" s="125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D64" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E64" s="129">
         <v>44705</v>
@@ -17374,10 +17374,10 @@
         <v>8</v>
       </c>
       <c r="C65" s="125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D65" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E65" s="129">
         <v>44705</v>
@@ -17409,10 +17409,10 @@
         <v>9</v>
       </c>
       <c r="C66" s="125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D66" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E66" s="129">
         <v>44705</v>
@@ -17444,10 +17444,10 @@
         <v>10</v>
       </c>
       <c r="C67" s="125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" s="128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E67" s="129">
         <v>44705</v>
@@ -17479,10 +17479,10 @@
         <v>11</v>
       </c>
       <c r="C68" s="125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D68" s="128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68" s="129">
         <v>44705</v>
@@ -17514,10 +17514,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D69" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E69" s="129">
         <v>44705</v>
@@ -17549,10 +17549,10 @@
         <v>13</v>
       </c>
       <c r="C70" s="144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E70" s="129">
         <v>44705</v>
@@ -17584,10 +17584,10 @@
         <v>14</v>
       </c>
       <c r="C71" s="131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D71" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" s="129">
         <v>44705</v>
@@ -17619,10 +17619,10 @@
         <v>15</v>
       </c>
       <c r="C72" s="131" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72" s="128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E72" s="129">
         <v>44705</v>
@@ -17654,10 +17654,10 @@
         <v>16</v>
       </c>
       <c r="C73" s="125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D73" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E73" s="129">
         <v>44705</v>
@@ -17689,10 +17689,10 @@
         <v>17</v>
       </c>
       <c r="C74" s="67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D74" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E74" s="129">
         <v>44705</v>
@@ -17724,10 +17724,10 @@
         <v>18</v>
       </c>
       <c r="C75" s="143" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D75" s="125" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E75" s="129">
         <v>44705</v>
@@ -17759,10 +17759,10 @@
         <v>19</v>
       </c>
       <c r="C76" s="131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D76" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E76" s="129">
         <v>44705</v>
@@ -17794,10 +17794,10 @@
         <v>20</v>
       </c>
       <c r="C77" s="131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D77" s="128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E77" s="129">
         <v>44705</v>
@@ -17829,10 +17829,10 @@
         <v>21</v>
       </c>
       <c r="C78" s="131" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D78" s="128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E78" s="129">
         <v>44705</v>
@@ -17864,10 +17864,10 @@
         <v>22</v>
       </c>
       <c r="C79" s="144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D79" s="128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E79" s="129">
         <v>44705</v>
@@ -17899,10 +17899,10 @@
         <v>23</v>
       </c>
       <c r="C80" s="131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D80" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E80" s="129">
         <v>44705</v>
@@ -17934,10 +17934,10 @@
         <v>24</v>
       </c>
       <c r="C81" s="131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D81" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E81" s="129">
         <v>44705</v>
@@ -17969,10 +17969,10 @@
         <v>25</v>
       </c>
       <c r="C82" s="131" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D82" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E82" s="129">
         <v>44705</v>
@@ -18004,10 +18004,10 @@
         <v>26</v>
       </c>
       <c r="C83" s="145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D83" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E83" s="129">
         <v>44705</v>
@@ -18039,10 +18039,10 @@
         <v>27</v>
       </c>
       <c r="C84" s="145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D84" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E84" s="129">
         <v>44705</v>
@@ -18074,10 +18074,10 @@
         <v>28</v>
       </c>
       <c r="C85" s="131" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D85" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E85" s="129">
         <v>44705</v>
@@ -18109,10 +18109,10 @@
         <v>29</v>
       </c>
       <c r="C86" s="131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D86" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E86" s="129">
         <v>44705</v>
@@ -18144,10 +18144,10 @@
         <v>30</v>
       </c>
       <c r="C87" s="131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D87" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E87" s="129">
         <v>44705</v>
@@ -18179,10 +18179,10 @@
         <v>31</v>
       </c>
       <c r="C88" s="131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D88" s="125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E88" s="129">
         <v>44705</v>
@@ -18214,10 +18214,10 @@
         <v>32</v>
       </c>
       <c r="C89" s="131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D89" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E89" s="129">
         <v>44705</v>
@@ -18249,10 +18249,10 @@
         <v>33</v>
       </c>
       <c r="C90" s="131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D90" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E90" s="129">
         <v>44705</v>
@@ -18284,10 +18284,10 @@
         <v>34</v>
       </c>
       <c r="C91" s="131" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D91" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E91" s="129">
         <v>44705</v>
@@ -18319,10 +18319,10 @@
         <v>35</v>
       </c>
       <c r="C92" s="131" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D92" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E92" s="129">
         <v>44705</v>
@@ -18354,10 +18354,10 @@
         <v>36</v>
       </c>
       <c r="C93" s="131" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D93" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E93" s="129">
         <v>44705</v>
@@ -18389,10 +18389,10 @@
         <v>37</v>
       </c>
       <c r="C94" s="131" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D94" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E94" s="129">
         <v>44705</v>
@@ -18424,10 +18424,10 @@
         <v>38</v>
       </c>
       <c r="C95" s="131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D95" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E95" s="129">
         <v>44705</v>
@@ -18459,10 +18459,10 @@
         <v>39</v>
       </c>
       <c r="C96" s="131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D96" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E96" s="129">
         <v>44705</v>
@@ -18494,10 +18494,10 @@
         <v>40</v>
       </c>
       <c r="C97" s="131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D97" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E97" s="129">
         <v>44705</v>
@@ -18529,10 +18529,10 @@
         <v>41</v>
       </c>
       <c r="C98" s="131" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D98" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E98" s="129">
         <v>44705</v>
@@ -18564,10 +18564,10 @@
         <v>42</v>
       </c>
       <c r="C99" s="131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D99" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E99" s="129">
         <v>44705</v>
@@ -18599,10 +18599,10 @@
         <v>43</v>
       </c>
       <c r="C100" s="131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D100" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E100" s="129">
         <v>44705</v>
@@ -18634,10 +18634,10 @@
         <v>44</v>
       </c>
       <c r="C101" s="131" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D101" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E101" s="129">
         <v>44705</v>
@@ -18669,10 +18669,10 @@
         <v>45</v>
       </c>
       <c r="C102" s="131" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D102" s="128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E102" s="129">
         <v>44705</v>
@@ -18704,10 +18704,10 @@
         <v>46</v>
       </c>
       <c r="C103" s="131" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D103" s="128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E103" s="129">
         <v>44705</v>
@@ -18739,10 +18739,10 @@
         <v>47</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D104" s="128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E104" s="129">
         <v>44705</v>
@@ -18945,11 +18945,11 @@
     <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="163" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B2" s="164"/>
       <c r="C2" s="167" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D2" s="168"/>
       <c r="E2" s="168"/>
@@ -19019,7 +19019,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="185" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E5" s="186"/>
       <c r="F5" s="186"/>
@@ -19134,7 +19134,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="179" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B11" s="180"/>
       <c r="C11" s="180"/>
@@ -19190,14 +19190,14 @@
         <v>25</v>
       </c>
       <c r="C14" s="121" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I14" s="33"/>
       <c r="L14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="M14" s="123" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="34"/>
     </row>
@@ -19248,7 +19248,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="E23" s="122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I23" s="7"/>
       <c r="Q23" s="14"/>
@@ -19257,7 +19257,7 @@
       <c r="A24" s="13"/>
       <c r="I24" s="7"/>
       <c r="O24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q24" s="14"/>
     </row>
@@ -19265,7 +19265,7 @@
       <c r="A25" s="13"/>
       <c r="I25" s="7"/>
       <c r="O25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="14"/>
     </row>
@@ -19283,7 +19283,7 @@
       <c r="A28" s="13"/>
       <c r="I28" s="7"/>
       <c r="O28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q28" s="14"/>
     </row>
@@ -19314,7 +19314,7 @@
       <c r="A33" s="13"/>
       <c r="I33" s="7"/>
       <c r="O33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q33" s="14"/>
     </row>
@@ -19370,7 +19370,7 @@
       <c r="A43" s="13"/>
       <c r="I43" s="7"/>
       <c r="K43" s="124" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q43" s="14"/>
     </row>
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B2" s="164"/>
       <c r="C2" s="167" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D2" s="168"/>
       <c r="E2" s="168"/>
@@ -20058,14 +20058,14 @@
       </c>
       <c r="C6" s="123"/>
       <c r="D6" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="123"/>
       <c r="M6" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q6" s="34"/>
     </row>
@@ -20076,17 +20076,17 @@
     <row r="8" spans="1:17" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="146" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E8" s="124"/>
       <c r="F8" s="146" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K8" s="151" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q8" s="14"/>
     </row>
@@ -20161,10 +20161,10 @@
     <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="L26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="14"/>
     </row>
@@ -20199,10 +20199,10 @@
     <row r="34" spans="1:17" s="149" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="147"/>
       <c r="B34" s="148" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F34" s="148" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q34" s="150"/>
     </row>
@@ -20233,7 +20233,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="L41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q41" s="14"/>
     </row>
@@ -20244,7 +20244,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="O43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q43" s="14"/>
     </row>
@@ -20324,16 +20324,16 @@
     <row r="62" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="13"/>
       <c r="B62" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L62" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="Q62" s="14"/>
     </row>
@@ -20416,20 +20416,20 @@
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="L82" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O82" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q82" s="14"/>
     </row>
     <row r="83" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="13"/>
       <c r="B83" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="Q83" s="14"/>
     </row>
@@ -20488,10 +20488,10 @@
     <row r="97" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="13"/>
       <c r="B97" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q97" s="14"/>
     </row>
@@ -20606,20 +20606,20 @@
     <row r="125" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="13"/>
       <c r="B125" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G125" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="Q125" s="14"/>
     </row>
     <row r="126" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="13"/>
       <c r="L126" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q126" s="14"/>
     </row>
@@ -20706,16 +20706,16 @@
     <row r="147" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="13"/>
       <c r="B147" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G147" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G147" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="L147" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="O147" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="O147" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="Q147" s="14"/>
     </row>
@@ -20790,7 +20790,7 @@
     <row r="165" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="13"/>
       <c r="L165" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O165" s="3"/>
       <c r="Q165" s="14"/>
@@ -20802,10 +20802,10 @@
     <row r="167" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="13"/>
       <c r="B167" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q167" s="14"/>
     </row>
@@ -20896,17 +20896,17 @@
     <row r="189" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="13"/>
       <c r="B189" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q189" s="14"/>
     </row>
     <row r="190" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="13"/>
       <c r="L190" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="O190" t="s">
         <v>426</v>
-      </c>
-      <c r="O190" t="s">
-        <v>427</v>
       </c>
       <c r="Q190" s="14"/>
     </row>
@@ -21085,10 +21085,10 @@
     <row r="234" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A234" s="13"/>
       <c r="L234" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O234" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q234" s="14"/>
     </row>
@@ -21171,10 +21171,10 @@
     <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254" s="13"/>
       <c r="L254" t="s">
+        <v>319</v>
+      </c>
+      <c r="O254" t="s">
         <v>320</v>
-      </c>
-      <c r="O254" t="s">
-        <v>321</v>
       </c>
       <c r="Q254" s="14"/>
     </row>
@@ -21249,10 +21249,10 @@
     <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272" s="13"/>
       <c r="L272" t="s">
+        <v>427</v>
+      </c>
+      <c r="O272" t="s">
         <v>428</v>
-      </c>
-      <c r="O272" t="s">
-        <v>429</v>
       </c>
       <c r="Q272" s="14"/>
     </row>
@@ -21335,10 +21335,10 @@
     <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292" s="13"/>
       <c r="L292" t="s">
+        <v>429</v>
+      </c>
+      <c r="O292" t="s">
         <v>430</v>
-      </c>
-      <c r="O292" t="s">
-        <v>431</v>
       </c>
       <c r="Q292" s="14"/>
     </row>
@@ -21449,10 +21449,10 @@
     <row r="319" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A319" s="13"/>
       <c r="L319" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="O319" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="O319" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="Q319" s="14"/>
     </row>
@@ -21547,10 +21547,10 @@
     <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" s="13"/>
       <c r="L342" t="s">
+        <v>433</v>
+      </c>
+      <c r="O342" t="s">
         <v>434</v>
-      </c>
-      <c r="O342" t="s">
-        <v>435</v>
       </c>
       <c r="Q342" s="14"/>
     </row>
@@ -21653,10 +21653,10 @@
     <row r="367" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A367" s="13"/>
       <c r="L367" t="s">
+        <v>435</v>
+      </c>
+      <c r="O367" t="s">
         <v>436</v>
-      </c>
-      <c r="O367" t="s">
-        <v>437</v>
       </c>
       <c r="Q367" s="14"/>
     </row>
@@ -21803,7 +21803,7 @@
       </c>
       <c r="B2" s="164"/>
       <c r="C2" s="167" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D2" s="168"/>
       <c r="E2" s="168"/>
@@ -21867,7 +21867,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
@@ -21888,7 +21888,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="141" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
@@ -21962,22 +21962,22 @@
         <v>1</v>
       </c>
       <c r="C9" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="99" t="s">
-        <v>331</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F9" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I9" s="40">
         <v>11</v>
@@ -21995,29 +21995,29 @@
         <v>2</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I10" s="139">
         <v>64</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -22030,22 +22030,22 @@
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>335</v>
-      </c>
       <c r="E11" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="102">
         <v>64</v>
@@ -22063,22 +22063,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I12" s="40">
         <v>128</v>
@@ -22096,31 +22096,31 @@
         <v>5</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13" s="40">
         <v>11</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K13" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -22133,22 +22133,22 @@
         <v>6</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I14" s="40">
         <v>10</v>
@@ -22166,22 +22166,22 @@
         <v>7</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I15" s="40">
         <v>64</v>
@@ -22199,22 +22199,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I16" s="40">
         <v>10</v>
@@ -22232,22 +22232,22 @@
         <v>9</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="40">
         <v>64</v>
@@ -22329,14 +22329,14 @@
     </row>
     <row r="22" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="141" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
@@ -22431,22 +22431,22 @@
         <v>1</v>
       </c>
       <c r="C26" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="E26" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F26" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I26" s="40">
         <v>11</v>
@@ -22464,22 +22464,22 @@
         <v>2</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I27" s="40">
         <v>256</v>
@@ -22497,22 +22497,22 @@
         <v>3</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I28" s="40">
         <v>256</v>
@@ -22530,22 +22530,22 @@
         <v>4</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I29" s="40">
         <v>11</v>
@@ -22563,22 +22563,22 @@
         <v>5</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I30" s="40">
         <v>64</v>
@@ -22596,22 +22596,22 @@
         <v>6</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I31" s="40">
         <v>11</v>
@@ -22629,22 +22629,22 @@
         <v>7</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I32" s="40">
         <v>11</v>
@@ -22662,22 +22662,22 @@
         <v>8</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I33" s="40">
         <v>256</v>
@@ -22695,22 +22695,22 @@
         <v>9</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I34" s="40">
         <v>11</v>
@@ -22728,22 +22728,22 @@
         <v>10</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I35" s="40">
         <v>11</v>
@@ -22761,22 +22761,22 @@
         <v>11</v>
       </c>
       <c r="C36" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>275</v>
-      </c>
       <c r="E36" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I36" s="40">
         <v>11</v>
@@ -22794,22 +22794,22 @@
         <v>12</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I37" s="40">
         <v>10</v>
@@ -22827,29 +22827,29 @@
         <v>13</v>
       </c>
       <c r="C38" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E38" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I38" s="40">
         <v>11</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -22862,22 +22862,22 @@
         <v>14</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I39" s="40">
         <v>10</v>
@@ -22895,22 +22895,22 @@
         <v>15</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I40" s="40">
         <v>64</v>
@@ -22928,22 +22928,22 @@
         <v>16</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I41" s="40">
         <v>10</v>
@@ -22961,22 +22961,22 @@
         <v>17</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I42" s="40">
         <v>64</v>
@@ -23029,7 +23029,7 @@
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
@@ -23050,7 +23050,7 @@
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="141" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E46" s="45"/>
       <c r="F46" s="45"/>
@@ -23124,22 +23124,22 @@
         <v>1</v>
       </c>
       <c r="C49" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F49" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H49" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I49" s="40">
         <v>11</v>
@@ -23157,29 +23157,29 @@
         <v>2</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F50" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I50" s="40">
         <v>256</v>
       </c>
       <c r="J50" s="40"/>
       <c r="K50" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -23192,31 +23192,31 @@
         <v>3</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I51" s="40">
         <v>11</v>
       </c>
       <c r="J51" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K51" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -23229,22 +23229,22 @@
         <v>4</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H52" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I52" s="40">
         <v>10</v>
@@ -23262,22 +23262,22 @@
         <v>5</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H53" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I53" s="40">
         <v>64</v>
@@ -23295,22 +23295,22 @@
         <v>6</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H54" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I54" s="40">
         <v>10</v>
@@ -23328,22 +23328,22 @@
         <v>7</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H55" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I55" s="40">
         <v>64</v>
@@ -23396,7 +23396,7 @@
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="141" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E59" s="45"/>
       <c r="F59" s="45"/>
@@ -23491,22 +23491,22 @@
         <v>1</v>
       </c>
       <c r="C62" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F62" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G62" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H62" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I62" s="40">
         <v>11</v>
@@ -23524,29 +23524,29 @@
         <v>2</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H63" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I63" s="40">
         <v>256</v>
       </c>
       <c r="J63" s="40"/>
       <c r="K63" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -23559,20 +23559,20 @@
         <v>3</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G64" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H64" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I64" s="40">
         <v>256</v>
@@ -23590,20 +23590,20 @@
         <v>4</v>
       </c>
       <c r="C65" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" s="39" t="s">
         <v>346</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>347</v>
       </c>
       <c r="E65" s="40"/>
       <c r="F65" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H65" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I65" s="40">
         <v>1024</v>
@@ -23621,31 +23621,31 @@
         <v>5</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D66" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F66" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H66" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I66" s="40">
         <v>11</v>
       </c>
       <c r="J66" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K66" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -23658,22 +23658,22 @@
         <v>6</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F67" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G67" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H67" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I67" s="40">
         <v>10</v>
@@ -23691,22 +23691,22 @@
         <v>7</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D68" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F68" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G68" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H68" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I68" s="40">
         <v>64</v>
@@ -23724,22 +23724,22 @@
         <v>8</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H69" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I69" s="40">
         <v>10</v>
@@ -23757,22 +23757,22 @@
         <v>9</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D70" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F70" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H70" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I70" s="40">
         <v>64</v>
@@ -23808,7 +23808,7 @@
       </c>
       <c r="C72" s="70"/>
       <c r="D72" s="80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E72" s="81"/>
       <c r="F72" s="81"/>
@@ -23829,7 +23829,7 @@
       </c>
       <c r="C73" s="70"/>
       <c r="D73" s="77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E73" s="84"/>
       <c r="F73" s="84"/>
@@ -23903,22 +23903,22 @@
         <v>1</v>
       </c>
       <c r="C76" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="90" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="91" t="s">
-        <v>139</v>
-      </c>
       <c r="F76" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G76" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H76" s="92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I76" s="91">
         <v>11</v>
@@ -23936,29 +23936,29 @@
         <v>2</v>
       </c>
       <c r="C77" s="90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D77" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E77" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F77" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G77" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H77" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I77" s="91">
         <v>256</v>
       </c>
       <c r="J77" s="91"/>
       <c r="K77" s="94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L77" s="70"/>
       <c r="M77" s="70"/>
@@ -23971,20 +23971,20 @@
         <v>3</v>
       </c>
       <c r="C78" s="90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D78" s="90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E78" s="91"/>
       <c r="F78" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G78" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H78" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I78" s="91">
         <v>256</v>
@@ -24002,20 +24002,20 @@
         <v>4</v>
       </c>
       <c r="C79" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="90" t="s">
         <v>195</v>
-      </c>
-      <c r="D79" s="90" t="s">
-        <v>196</v>
       </c>
       <c r="E79" s="91"/>
       <c r="F79" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G79" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H79" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I79" s="91">
         <v>256</v>
@@ -24033,31 +24033,31 @@
         <v>5</v>
       </c>
       <c r="C80" s="90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D80" s="90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E80" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F80" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G80" s="91" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H80" s="92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I80" s="91">
         <v>1</v>
       </c>
       <c r="J80" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K80" s="93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L80" s="70"/>
       <c r="M80" s="70"/>
@@ -24070,22 +24070,22 @@
         <v>6</v>
       </c>
       <c r="C81" s="90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D81" s="90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E81" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F81" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G81" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H81" s="92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I81" s="91">
         <v>11</v>
@@ -24103,22 +24103,22 @@
         <v>7</v>
       </c>
       <c r="C82" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D82" s="90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E82" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F82" s="91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G82" s="91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H82" s="92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I82" s="91"/>
       <c r="J82" s="91"/>
@@ -24134,22 +24134,22 @@
         <v>8</v>
       </c>
       <c r="C83" s="90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D83" s="90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E83" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="G83" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" s="92" t="s">
         <v>141</v>
-      </c>
-      <c r="F83" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="G83" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="H83" s="92" t="s">
-        <v>142</v>
       </c>
       <c r="I83" s="91"/>
       <c r="J83" s="91"/>
@@ -24165,22 +24165,22 @@
         <v>9</v>
       </c>
       <c r="C84" s="90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D84" s="90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E84" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="H84" s="92" t="s">
         <v>141</v>
-      </c>
-      <c r="F84" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="G84" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="H84" s="92" t="s">
-        <v>142</v>
       </c>
       <c r="I84" s="91"/>
       <c r="J84" s="91"/>
@@ -24231,7 +24231,7 @@
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="141" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E88" s="45"/>
       <c r="F88" s="45"/>
@@ -24326,22 +24326,22 @@
         <v>1</v>
       </c>
       <c r="C91" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D91" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="E91" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F91" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G91" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H91" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I91" s="40">
         <v>11</v>
@@ -24359,22 +24359,22 @@
         <v>2</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E92" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F92" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H92" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I92" s="40">
         <v>256</v>
@@ -24392,22 +24392,22 @@
         <v>3</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D93" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I93" s="40">
         <v>256</v>
@@ -24425,22 +24425,22 @@
         <v>4</v>
       </c>
       <c r="C94" s="76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D94" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E94" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H94" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I94" s="40">
         <v>64</v>
@@ -24458,22 +24458,22 @@
         <v>5</v>
       </c>
       <c r="C95" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D95" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E95" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F95" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G95" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H95" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I95" s="40">
         <v>256</v>
@@ -24491,22 +24491,22 @@
         <v>6</v>
       </c>
       <c r="C96" s="76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D96" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E96" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F96" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G96" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H96" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I96" s="40">
         <v>64</v>
@@ -24524,22 +24524,22 @@
         <v>7</v>
       </c>
       <c r="C97" s="76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D97" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F97" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G97" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I97" s="40">
         <v>256</v>
@@ -24557,31 +24557,31 @@
         <v>8</v>
       </c>
       <c r="C98" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D98" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E98" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F98" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I98" s="40">
         <v>11</v>
       </c>
       <c r="J98" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K98" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -24594,22 +24594,22 @@
         <v>9</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D99" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E99" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F99" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I99" s="40">
         <v>10</v>
@@ -24627,22 +24627,22 @@
         <v>10</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D100" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E100" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F100" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G100" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I100" s="40">
         <v>64</v>
@@ -24660,22 +24660,22 @@
         <v>11</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D101" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E101" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F101" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G101" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I101" s="40">
         <v>10</v>
@@ -24693,22 +24693,22 @@
         <v>12</v>
       </c>
       <c r="C102" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F102" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G102" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I102" s="40">
         <v>64</v>
@@ -24778,7 +24778,7 @@
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E106" s="22"/>
       <c r="F106" s="22"/>
@@ -24799,7 +24799,7 @@
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="141" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E107" s="45"/>
       <c r="F107" s="45"/>
@@ -24873,22 +24873,22 @@
         <v>1</v>
       </c>
       <c r="C110" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E110" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D110" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F110" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G110" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H110" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I110" s="40">
         <v>11</v>
@@ -24906,29 +24906,29 @@
         <v>2</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D111" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E111" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F111" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G111" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H111" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I111" s="40">
         <v>256</v>
       </c>
       <c r="J111" s="40"/>
       <c r="K111" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
@@ -24941,22 +24941,22 @@
         <v>3</v>
       </c>
       <c r="C112" s="39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D112" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E112" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F112" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G112" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H112" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I112" s="40">
         <v>256</v>
@@ -24974,22 +24974,22 @@
         <v>4</v>
       </c>
       <c r="C113" s="76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D113" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F113" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G113" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H113" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I113" s="40">
         <v>256</v>
@@ -25007,22 +25007,22 @@
         <v>5</v>
       </c>
       <c r="C114" s="76" t="s">
+        <v>357</v>
+      </c>
+      <c r="D114" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="D114" s="39" t="s">
-        <v>359</v>
-      </c>
       <c r="E114" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F114" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G114" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H114" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I114" s="40">
         <v>15</v>
@@ -25040,22 +25040,22 @@
         <v>6</v>
       </c>
       <c r="C115" s="76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D115" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F115" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G115" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H115" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I115" s="40">
         <v>256</v>
@@ -25073,29 +25073,29 @@
         <v>7</v>
       </c>
       <c r="C116" s="76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D116" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E116" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F116" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G116" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H116" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I116" s="40">
         <v>11</v>
       </c>
       <c r="J116" s="40"/>
       <c r="K116" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
@@ -25108,29 +25108,29 @@
         <v>8</v>
       </c>
       <c r="C117" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D117" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E117" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F117" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G117" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H117" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I117" s="40">
         <v>11</v>
       </c>
       <c r="J117" s="40"/>
       <c r="K117" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
@@ -25143,22 +25143,22 @@
         <v>9</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D118" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E118" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F118" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G118" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H118" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I118" s="40">
         <v>10</v>
@@ -25176,22 +25176,22 @@
         <v>10</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D119" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E119" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F119" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G119" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H119" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I119" s="40">
         <v>64</v>
@@ -25209,22 +25209,22 @@
         <v>11</v>
       </c>
       <c r="C120" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F120" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G120" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H120" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I120" s="40">
         <v>10</v>
@@ -25242,22 +25242,22 @@
         <v>12</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D121" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E121" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F121" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G121" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H121" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I121" s="40">
         <v>64</v>
@@ -25301,7 +25301,7 @@
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E124" s="22"/>
       <c r="F124" s="22"/>
@@ -25322,7 +25322,7 @@
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E125" s="45"/>
       <c r="F125" s="45"/>
@@ -25396,22 +25396,22 @@
         <v>1</v>
       </c>
       <c r="C128" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D128" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E128" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D128" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="E128" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F128" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G128" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H128" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I128" s="40">
         <v>11</v>
@@ -25429,22 +25429,22 @@
         <v>2</v>
       </c>
       <c r="C129" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D129" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E129" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F129" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G129" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H129" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I129" s="40">
         <v>11</v>
@@ -25462,22 +25462,22 @@
         <v>3</v>
       </c>
       <c r="C130" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="D130" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="D130" s="39" t="s">
-        <v>361</v>
-      </c>
       <c r="E130" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F130" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G130" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H130" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I130" s="40">
         <v>11</v>
@@ -25495,22 +25495,22 @@
         <v>4</v>
       </c>
       <c r="C131" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D131" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E131" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F131" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G131" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H131" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I131" s="40">
         <v>11</v>
@@ -25528,31 +25528,31 @@
         <v>5</v>
       </c>
       <c r="C132" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D132" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D132" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E132" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F132" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G132" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H132" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I132" s="40">
         <v>11</v>
       </c>
       <c r="J132" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K132" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
@@ -25565,22 +25565,22 @@
         <v>6</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D133" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E133" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F133" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G133" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H133" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I133" s="40">
         <v>10</v>
@@ -25598,22 +25598,22 @@
         <v>7</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E134" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F134" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G134" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H134" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I134" s="40">
         <v>64</v>
@@ -25631,22 +25631,22 @@
         <v>8</v>
       </c>
       <c r="C135" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D135" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E135" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F135" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G135" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H135" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I135" s="40">
         <v>10</v>
@@ -25664,22 +25664,22 @@
         <v>9</v>
       </c>
       <c r="C136" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D136" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E136" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F136" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G136" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H136" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I136" s="40">
         <v>64</v>
@@ -25699,7 +25699,7 @@
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E138" s="22"/>
       <c r="F138" s="22"/>
@@ -25720,7 +25720,7 @@
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="141" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E139" s="45"/>
       <c r="F139" s="45"/>
@@ -25794,22 +25794,22 @@
         <v>1</v>
       </c>
       <c r="C142" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D142" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E142" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D142" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="E142" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F142" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G142" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H142" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I142" s="40">
         <v>11</v>
@@ -25827,22 +25827,22 @@
         <v>2</v>
       </c>
       <c r="C143" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="D143" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="D143" s="39" t="s">
-        <v>364</v>
-      </c>
       <c r="E143" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F143" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G143" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H143" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I143" s="40">
         <v>11</v>
@@ -25860,22 +25860,22 @@
         <v>3</v>
       </c>
       <c r="C144" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D144" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E144" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F144" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G144" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H144" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I144" s="40">
         <v>11</v>
@@ -25893,22 +25893,22 @@
         <v>4</v>
       </c>
       <c r="C145" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D145" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E145" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F145" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G145" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H145" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I145" s="40">
         <v>11</v>
@@ -25926,22 +25926,22 @@
         <v>5</v>
       </c>
       <c r="C146" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D146" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E146" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F146" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G146" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H146" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I146" s="40">
         <v>11</v>
@@ -25959,31 +25959,31 @@
         <v>6</v>
       </c>
       <c r="C147" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D147" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D147" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E147" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F147" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G147" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H147" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I147" s="40">
         <v>11</v>
       </c>
       <c r="J147" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K147" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
@@ -25996,22 +25996,22 @@
         <v>7</v>
       </c>
       <c r="C148" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="D148" s="39" t="s">
         <v>366</v>
       </c>
-      <c r="D148" s="39" t="s">
-        <v>367</v>
-      </c>
       <c r="E148" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F148" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G148" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H148" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I148" s="40">
         <v>10</v>
@@ -26029,22 +26029,22 @@
         <v>8</v>
       </c>
       <c r="C149" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D149" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E149" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F149" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G149" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H149" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I149" s="40">
         <v>10</v>
@@ -26062,22 +26062,22 @@
         <v>9</v>
       </c>
       <c r="C150" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D150" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E150" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F150" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G150" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H150" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I150" s="40">
         <v>64</v>
@@ -26095,22 +26095,22 @@
         <v>10</v>
       </c>
       <c r="C151" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D151" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E151" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F151" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G151" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H151" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I151" s="40">
         <v>10</v>
@@ -26128,22 +26128,22 @@
         <v>11</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D152" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E152" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F152" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G152" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H152" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I152" s="40">
         <v>64</v>
@@ -26163,7 +26163,7 @@
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
@@ -26184,7 +26184,7 @@
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E155" s="45"/>
       <c r="F155" s="45"/>
@@ -26258,22 +26258,22 @@
         <v>1</v>
       </c>
       <c r="C158" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D158" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E158" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D158" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="E158" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F158" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G158" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H158" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I158" s="40">
         <v>11</v>
@@ -26291,22 +26291,22 @@
         <v>2</v>
       </c>
       <c r="C159" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D159" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E159" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F159" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G159" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H159" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I159" s="40">
         <v>64</v>
@@ -26324,22 +26324,22 @@
         <v>3</v>
       </c>
       <c r="C160" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D160" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E160" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F160" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G160" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H160" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I160" s="40">
         <v>256</v>
@@ -26357,22 +26357,22 @@
         <v>4</v>
       </c>
       <c r="C161" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D161" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E161" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F161" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G161" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H161" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I161" s="40">
         <v>1024</v>
@@ -26390,31 +26390,31 @@
         <v>5</v>
       </c>
       <c r="C162" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D162" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D162" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E162" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F162" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G162" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H162" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I162" s="40">
         <v>11</v>
       </c>
       <c r="J162" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K162" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
@@ -26427,22 +26427,22 @@
         <v>6</v>
       </c>
       <c r="C163" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D163" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E163" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F163" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G163" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H163" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I163" s="40">
         <v>10</v>
@@ -26460,22 +26460,22 @@
         <v>7</v>
       </c>
       <c r="C164" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D164" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E164" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F164" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G164" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H164" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I164" s="40">
         <v>64</v>
@@ -26493,22 +26493,22 @@
         <v>8</v>
       </c>
       <c r="C165" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D165" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E165" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F165" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G165" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H165" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I165" s="40">
         <v>10</v>
@@ -26526,22 +26526,22 @@
         <v>9</v>
       </c>
       <c r="C166" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D166" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E166" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F166" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G166" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H166" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I166" s="40">
         <v>64</v>
@@ -26561,7 +26561,7 @@
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E168" s="22"/>
       <c r="F168" s="22"/>
@@ -26582,7 +26582,7 @@
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E169" s="45"/>
       <c r="F169" s="45"/>
@@ -26656,22 +26656,22 @@
         <v>1</v>
       </c>
       <c r="C172" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D172" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E172" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D172" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="E172" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F172" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G172" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H172" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I172" s="40">
         <v>11</v>
@@ -26689,22 +26689,22 @@
         <v>2</v>
       </c>
       <c r="C173" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D173" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E173" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F173" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G173" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H173" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I173" s="40">
         <v>11</v>
@@ -26722,22 +26722,22 @@
         <v>3</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D174" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E174" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F174" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G174" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H174" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I174" s="40">
         <v>11</v>
@@ -26755,22 +26755,22 @@
         <v>4</v>
       </c>
       <c r="C175" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D175" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E175" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F175" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G175" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H175" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I175" s="40">
         <v>11</v>
@@ -26788,22 +26788,22 @@
         <v>5</v>
       </c>
       <c r="C176" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D176" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E176" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F176" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G176" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H176" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I176" s="40">
         <v>256</v>
@@ -26821,22 +26821,22 @@
         <v>6</v>
       </c>
       <c r="C177" s="39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D177" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E177" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F177" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G177" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H177" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I177" s="40">
         <v>11</v>
@@ -26854,31 +26854,31 @@
         <v>7</v>
       </c>
       <c r="C178" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D178" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D178" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E178" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F178" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G178" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H178" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I178" s="40">
         <v>11</v>
       </c>
       <c r="J178" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K178" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
@@ -26891,22 +26891,22 @@
         <v>8</v>
       </c>
       <c r="C179" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D179" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E179" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F179" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G179" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H179" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I179" s="40">
         <v>10</v>
@@ -26924,22 +26924,22 @@
         <v>9</v>
       </c>
       <c r="C180" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D180" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E180" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G180" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H180" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I180" s="40">
         <v>64</v>
@@ -26957,22 +26957,22 @@
         <v>10</v>
       </c>
       <c r="C181" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D181" s="39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E181" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F181" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G181" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H181" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I181" s="40">
         <v>10</v>
@@ -26990,22 +26990,22 @@
         <v>11</v>
       </c>
       <c r="C182" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D182" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E182" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F182" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G182" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H182" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I182" s="40">
         <v>64</v>
@@ -27025,7 +27025,7 @@
       </c>
       <c r="C188" s="69"/>
       <c r="D188" s="106" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E188" s="107"/>
       <c r="F188" s="107"/>
@@ -27046,7 +27046,7 @@
       </c>
       <c r="C189" s="69"/>
       <c r="D189" s="141" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E189" s="110"/>
       <c r="F189" s="110"/>
@@ -27120,22 +27120,22 @@
         <v>1</v>
       </c>
       <c r="C192" s="116" t="s">
+        <v>137</v>
+      </c>
+      <c r="D192" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="E192" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="D192" s="116" t="s">
-        <v>176</v>
-      </c>
-      <c r="E192" s="117" t="s">
-        <v>139</v>
-      </c>
       <c r="F192" s="117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G192" s="117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H192" s="118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I192" s="117">
         <v>11</v>
@@ -27153,22 +27153,22 @@
         <v>2</v>
       </c>
       <c r="C193" s="116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D193" s="116" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E193" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F193" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G193" s="117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H193" s="118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I193" s="117">
         <v>256</v>
@@ -27186,22 +27186,22 @@
         <v>3</v>
       </c>
       <c r="C194" s="116" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D194" s="116" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E194" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F194" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G194" s="117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H194" s="118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I194" s="117">
         <v>256</v>
@@ -27219,22 +27219,22 @@
         <v>4</v>
       </c>
       <c r="C195" s="116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D195" s="116" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E195" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F195" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G195" s="117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H195" s="118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I195" s="117">
         <v>256</v>
@@ -27252,22 +27252,22 @@
         <v>5</v>
       </c>
       <c r="C196" s="116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D196" s="116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E196" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F196" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G196" s="117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H196" s="118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I196" s="117">
         <v>256</v>
@@ -27285,31 +27285,31 @@
         <v>6</v>
       </c>
       <c r="C197" s="116" t="s">
+        <v>151</v>
+      </c>
+      <c r="D197" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="D197" s="116" t="s">
-        <v>153</v>
-      </c>
       <c r="E197" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F197" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G197" s="117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H197" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I197" s="40">
         <v>11</v>
       </c>
       <c r="J197" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K197" s="119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L197" s="69"/>
       <c r="M197" s="69"/>
@@ -27322,22 +27322,22 @@
         <v>7</v>
       </c>
       <c r="C198" s="116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D198" s="116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E198" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F198" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G198" s="117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H198" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I198" s="40">
         <v>10</v>
@@ -27355,22 +27355,22 @@
         <v>8</v>
       </c>
       <c r="C199" s="116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D199" s="116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E199" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F199" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G199" s="117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H199" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I199" s="40">
         <v>64</v>
@@ -27388,22 +27388,22 @@
         <v>9</v>
       </c>
       <c r="C200" s="116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D200" s="116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E200" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F200" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G200" s="117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H200" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I200" s="40">
         <v>10</v>
@@ -27421,22 +27421,22 @@
         <v>10</v>
       </c>
       <c r="C201" s="116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D201" s="116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E201" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F201" s="117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G201" s="117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H201" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I201" s="40">
         <v>64</v>
@@ -27457,7 +27457,7 @@
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E204" s="22"/>
       <c r="F204" s="22"/>
@@ -27478,7 +27478,7 @@
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="141" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E205" s="45"/>
       <c r="F205" s="45"/>
@@ -27552,22 +27552,22 @@
         <v>1</v>
       </c>
       <c r="C208" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D208" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="E208" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D208" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="E208" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F208" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G208" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H208" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I208" s="40">
         <v>11</v>
@@ -27585,29 +27585,29 @@
         <v>2</v>
       </c>
       <c r="C209" s="39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D209" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E209" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F209" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G209" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H209" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I209" s="40">
         <v>256</v>
       </c>
       <c r="J209" s="40"/>
       <c r="K209" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
@@ -27620,22 +27620,22 @@
         <v>3</v>
       </c>
       <c r="C210" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D210" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E210" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F210" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G210" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H210" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I210" s="40">
         <v>256</v>
@@ -27653,22 +27653,22 @@
         <v>4</v>
       </c>
       <c r="C211" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D211" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E211" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F211" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G211" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H211" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I211" s="40">
         <v>256</v>
@@ -27686,22 +27686,22 @@
         <v>5</v>
       </c>
       <c r="C212" s="39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D212" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E212" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F212" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G212" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H212" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I212" s="40">
         <v>256</v>
@@ -27719,22 +27719,22 @@
         <v>6</v>
       </c>
       <c r="C213" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D213" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E213" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F213" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G213" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H213" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I213" s="40">
         <v>64</v>
@@ -27752,22 +27752,22 @@
         <v>7</v>
       </c>
       <c r="C214" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D214" s="39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E214" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F214" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G214" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H214" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I214" s="40">
         <v>64</v>
@@ -27785,22 +27785,22 @@
         <v>8</v>
       </c>
       <c r="C215" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D215" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E215" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F215" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G215" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H215" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I215" s="40">
         <v>256</v>
@@ -27818,22 +27818,22 @@
         <v>9</v>
       </c>
       <c r="C216" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D216" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E216" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F216" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G216" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H216" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I216" s="40">
         <v>256</v>
@@ -27851,31 +27851,31 @@
         <v>10</v>
       </c>
       <c r="C217" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D217" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D217" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E217" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F217" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G217" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H217" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I217" s="40">
         <v>11</v>
       </c>
       <c r="J217" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K217" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L217" s="6"/>
       <c r="M217" s="6"/>
@@ -27888,22 +27888,22 @@
         <v>11</v>
       </c>
       <c r="C218" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D218" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E218" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F218" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G218" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H218" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I218" s="40">
         <v>10</v>
@@ -27921,22 +27921,22 @@
         <v>12</v>
       </c>
       <c r="C219" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D219" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E219" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F219" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G219" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H219" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I219" s="40">
         <v>64</v>
@@ -27954,22 +27954,22 @@
         <v>13</v>
       </c>
       <c r="C220" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D220" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E220" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F220" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G220" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H220" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I220" s="40">
         <v>10</v>
@@ -27987,22 +27987,22 @@
         <v>14</v>
       </c>
       <c r="C221" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D221" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E221" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F221" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G221" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H221" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I221" s="40">
         <v>64</v>
@@ -28038,7 +28038,7 @@
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E223" s="22"/>
       <c r="F223" s="22"/>
@@ -28059,7 +28059,7 @@
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="141" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E224" s="45"/>
       <c r="F224" s="45"/>
@@ -28133,22 +28133,22 @@
         <v>1</v>
       </c>
       <c r="C227" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D227" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E227" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D227" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="E227" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F227" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G227" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H227" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I227" s="40">
         <v>11</v>
@@ -28166,22 +28166,22 @@
         <v>2</v>
       </c>
       <c r="C228" s="76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D228" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E228" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F228" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G228" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H228" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I228" s="40">
         <v>256</v>
@@ -28199,22 +28199,22 @@
         <v>3</v>
       </c>
       <c r="C229" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D229" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E229" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F229" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G229" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H229" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I229" s="40">
         <v>256</v>
@@ -28232,31 +28232,31 @@
         <v>4</v>
       </c>
       <c r="C230" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D230" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D230" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E230" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F230" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G230" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H230" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I230" s="40">
         <v>11</v>
       </c>
       <c r="J230" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K230" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L230" s="6"/>
       <c r="M230" s="6"/>
@@ -28269,22 +28269,22 @@
         <v>5</v>
       </c>
       <c r="C231" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D231" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E231" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F231" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G231" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H231" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I231" s="40">
         <v>10</v>
@@ -28302,22 +28302,22 @@
         <v>6</v>
       </c>
       <c r="C232" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D232" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E232" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F232" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G232" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H232" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I232" s="40">
         <v>64</v>
@@ -28335,22 +28335,22 @@
         <v>7</v>
       </c>
       <c r="C233" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D233" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E233" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F233" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G233" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H233" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I233" s="40">
         <v>10</v>
@@ -28368,22 +28368,22 @@
         <v>8</v>
       </c>
       <c r="C234" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D234" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E234" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F234" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G234" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H234" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I234" s="40">
         <v>64</v>
@@ -28403,7 +28403,7 @@
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E236" s="22"/>
       <c r="F236" s="22"/>
@@ -28424,7 +28424,7 @@
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="141" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E237" s="45"/>
       <c r="F237" s="45"/>
@@ -28498,22 +28498,22 @@
         <v>1</v>
       </c>
       <c r="C240" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D240" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="E240" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D240" s="99" t="s">
-        <v>289</v>
-      </c>
-      <c r="E240" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F240" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G240" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H240" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I240" s="40">
         <v>11</v>
@@ -28531,22 +28531,22 @@
         <v>2</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D241" s="39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E241" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F241" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G241" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H241" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I241" s="40">
         <v>256</v>
@@ -28564,22 +28564,22 @@
         <v>3</v>
       </c>
       <c r="C242" s="76" t="s">
+        <v>392</v>
+      </c>
+      <c r="D242" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="D242" s="39" t="s">
-        <v>394</v>
-      </c>
       <c r="E242" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F242" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G242" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H242" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I242" s="40">
         <v>256</v>
@@ -28597,31 +28597,31 @@
         <v>4</v>
       </c>
       <c r="C243" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D243" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D243" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E243" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F243" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G243" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H243" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I243" s="40">
         <v>11</v>
       </c>
       <c r="J243" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K243" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L243" s="6"/>
       <c r="M243" s="6"/>
@@ -28634,22 +28634,22 @@
         <v>5</v>
       </c>
       <c r="C244" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D244" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E244" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F244" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G244" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H244" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I244" s="40">
         <v>10</v>
@@ -28667,22 +28667,22 @@
         <v>6</v>
       </c>
       <c r="C245" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D245" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E245" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F245" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G245" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H245" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I245" s="40">
         <v>64</v>
@@ -28700,22 +28700,22 @@
         <v>7</v>
       </c>
       <c r="C246" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D246" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E246" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F246" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G246" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H246" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I246" s="40">
         <v>10</v>
@@ -28733,22 +28733,22 @@
         <v>8</v>
       </c>
       <c r="C247" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D247" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E247" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F247" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G247" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H247" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I247" s="40">
         <v>64</v>
@@ -28768,7 +28768,7 @@
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E250" s="22"/>
       <c r="F250" s="22"/>
@@ -28789,7 +28789,7 @@
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="141" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E251" s="45"/>
       <c r="F251" s="45"/>
@@ -28863,22 +28863,22 @@
         <v>1</v>
       </c>
       <c r="C254" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D254" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E254" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D254" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="E254" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F254" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G254" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H254" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I254" s="40">
         <v>11</v>
@@ -28896,22 +28896,22 @@
         <v>2</v>
       </c>
       <c r="C255" s="76" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D255" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E255" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F255" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G255" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H255" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I255" s="40">
         <v>256</v>
@@ -28929,22 +28929,22 @@
         <v>3</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D256" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E256" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F256" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G256" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H256" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I256" s="40">
         <v>11</v>
@@ -28962,31 +28962,31 @@
         <v>4</v>
       </c>
       <c r="C257" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D257" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D257" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E257" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F257" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G257" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H257" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I257" s="40">
         <v>11</v>
       </c>
       <c r="J257" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K257" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
@@ -28999,22 +28999,22 @@
         <v>5</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D258" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E258" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F258" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G258" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H258" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I258" s="40">
         <v>10</v>
@@ -29032,22 +29032,22 @@
         <v>6</v>
       </c>
       <c r="C259" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D259" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E259" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F259" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G259" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H259" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I259" s="40">
         <v>64</v>
@@ -29065,22 +29065,22 @@
         <v>7</v>
       </c>
       <c r="C260" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D260" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E260" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F260" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G260" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H260" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I260" s="40">
         <v>10</v>
@@ -29098,22 +29098,22 @@
         <v>8</v>
       </c>
       <c r="C261" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D261" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E261" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F261" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G261" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H261" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I261" s="40">
         <v>64</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E265" s="22"/>
       <c r="F265" s="22"/>
@@ -29176,7 +29176,7 @@
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="141" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E266" s="45"/>
       <c r="F266" s="45"/>
@@ -29250,22 +29250,22 @@
         <v>1</v>
       </c>
       <c r="C269" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D269" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="E269" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D269" s="99" t="s">
-        <v>289</v>
-      </c>
-      <c r="E269" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F269" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G269" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H269" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I269" s="40">
         <v>11</v>
@@ -29283,22 +29283,22 @@
         <v>2</v>
       </c>
       <c r="C270" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D270" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E270" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F270" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G270" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H270" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I270" s="40">
         <v>256</v>
@@ -29316,22 +29316,22 @@
         <v>3</v>
       </c>
       <c r="C271" s="76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D271" s="76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E271" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F271" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G271" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H271" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I271" s="40">
         <v>1024</v>
@@ -29349,31 +29349,31 @@
         <v>4</v>
       </c>
       <c r="C272" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D272" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D272" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E272" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F272" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G272" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H272" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I272" s="40">
         <v>11</v>
       </c>
       <c r="J272" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K272" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L272" s="6"/>
       <c r="M272" s="6"/>
@@ -29386,22 +29386,22 @@
         <v>5</v>
       </c>
       <c r="C273" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D273" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E273" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F273" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G273" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H273" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I273" s="40">
         <v>10</v>
@@ -29419,22 +29419,22 @@
         <v>6</v>
       </c>
       <c r="C274" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D274" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E274" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F274" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G274" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H274" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I274" s="40">
         <v>64</v>
@@ -29452,22 +29452,22 @@
         <v>7</v>
       </c>
       <c r="C275" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D275" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E275" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F275" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G275" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H275" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I275" s="40">
         <v>10</v>
@@ -29485,22 +29485,22 @@
         <v>8</v>
       </c>
       <c r="C276" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D276" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E276" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F276" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G276" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H276" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I276" s="40">
         <v>64</v>
@@ -29527,7 +29527,7 @@
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E278" s="22"/>
       <c r="F278" s="22"/>
@@ -29548,7 +29548,7 @@
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="141" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E279" s="45"/>
       <c r="F279" s="45"/>
@@ -29622,22 +29622,22 @@
         <v>1</v>
       </c>
       <c r="C282" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D282" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="E282" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D282" s="99" t="s">
-        <v>301</v>
-      </c>
-      <c r="E282" s="40" t="s">
-        <v>139</v>
-      </c>
       <c r="F282" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G282" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H282" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I282" s="40">
         <v>11</v>
@@ -29655,22 +29655,22 @@
         <v>2</v>
       </c>
       <c r="C283" s="39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D283" s="39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E283" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F283" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G283" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H283" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I283" s="40">
         <v>256</v>
@@ -29688,22 +29688,22 @@
         <v>3</v>
       </c>
       <c r="C284" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D284" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E284" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F284" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G284" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H284" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I284" s="40">
         <v>1024</v>
@@ -29721,31 +29721,31 @@
         <v>4</v>
       </c>
       <c r="C285" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D285" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D285" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="E285" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F285" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G285" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H285" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I285" s="40">
         <v>11</v>
       </c>
       <c r="J285" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K285" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
@@ -29758,22 +29758,22 @@
         <v>5</v>
       </c>
       <c r="C286" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D286" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E286" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F286" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G286" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H286" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I286" s="40">
         <v>10</v>
@@ -29791,22 +29791,22 @@
         <v>6</v>
       </c>
       <c r="C287" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D287" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E287" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F287" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G287" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H287" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I287" s="40">
         <v>64</v>
@@ -29824,22 +29824,22 @@
         <v>7</v>
       </c>
       <c r="C288" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D288" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E288" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F288" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G288" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H288" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I288" s="40">
         <v>10</v>
@@ -29857,22 +29857,22 @@
         <v>8</v>
       </c>
       <c r="C289" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D289" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E289" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F289" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G289" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H289" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I289" s="40">
         <v>64</v>

--- a/02.Design_Document/project_management.xlsx
+++ b/02.Design_Document/project_management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\backend\BookStore\02.Design_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA535B0D-719A-4A33-9286-886AC1351D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B531FF-B389-44D8-963E-4D29BA7B7108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15336,7 +15336,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="171">
-        <v>44333</v>
+        <v>44698</v>
       </c>
       <c r="O2" s="172"/>
     </row>
